--- a/Midterm-exam/evidence/spreadsheets/per_site/www.vestby.kommune.no.xlsx
+++ b/Midterm-exam/evidence/spreadsheets/per_site/www.vestby.kommune.no.xlsx
@@ -445,31 +445,31 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>7474.364999999998</v>
+        <v>7785.067000000001</v>
       </c>
       <c r="C2">
-        <v>3639.0485000000003</v>
+        <v>3622.4445000000005</v>
       </c>
       <c r="D2">
-        <v>407</v>
+        <v>276</v>
       </c>
       <c r="E2">
-        <v>7496.938799999998</v>
+        <v>7807.666900000002</v>
       </c>
       <c r="F2">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>5860.106800054522</v>
+        <v>5676.714783441541</v>
       </c>
       <c r="I2">
         <v>64</v>
       </c>
       <c r="J2">
-        <v>868684</v>
+        <v>920779</v>
       </c>
       <c r="K2">
         <v>60</v>
@@ -480,31 +480,31 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>5998.447</v>
+        <v>7779.043</v>
       </c>
       <c r="C3">
-        <v>2618.081</v>
+        <v>3665.5035000000007</v>
       </c>
       <c r="D3">
-        <v>448</v>
+        <v>259</v>
       </c>
       <c r="E3">
-        <v>6289.628550000001</v>
+        <v>7801.620100000001</v>
       </c>
       <c r="F3">
-        <v>5.5</v>
+        <v>14</v>
       </c>
       <c r="G3">
-        <v>0.003455716734694919</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>2948.768223408032</v>
+        <v>5672.896039849076</v>
       </c>
       <c r="I3">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="J3">
-        <v>868675</v>
+        <v>920749</v>
       </c>
       <c r="K3">
         <v>60</v>
@@ -515,31 +515,31 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>6236.335000000001</v>
+        <v>7702.208000000002</v>
       </c>
       <c r="C4">
-        <v>2642.26</v>
+        <v>3619.9439999999995</v>
       </c>
       <c r="D4">
-        <v>448</v>
+        <v>288</v>
       </c>
       <c r="E4">
-        <v>6354.497000000001</v>
+        <v>7717.264200000002</v>
       </c>
       <c r="F4">
-        <v>9.5</v>
+        <v>16</v>
       </c>
       <c r="G4">
-        <v>0.003455716734694919</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>2987.367028056496</v>
+        <v>5712.681214902303</v>
       </c>
       <c r="I4">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="J4">
-        <v>868679</v>
+        <v>920778</v>
       </c>
       <c r="K4">
         <v>60</v>
@@ -550,31 +550,31 @@
         <v>median</v>
       </c>
       <c r="B5">
-        <v>6236.335000000001</v>
+        <v>7779.043</v>
       </c>
       <c r="C5">
-        <v>2642.26</v>
+        <v>3622.4445000000005</v>
       </c>
       <c r="D5">
-        <v>448</v>
+        <v>276</v>
       </c>
       <c r="E5">
-        <v>6354.497000000001</v>
+        <v>7801.620100000001</v>
       </c>
       <c r="F5">
-        <v>9.5</v>
+        <v>16</v>
       </c>
       <c r="G5">
-        <v>0.003455716734694919</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>2987.367028056496</v>
+        <v>5676.714783441541</v>
       </c>
       <c r="I5">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="J5">
-        <v>868679</v>
+        <v>920778</v>
       </c>
       <c r="K5">
         <v>60</v>
@@ -634,16 +634,16 @@
         <v>text/html</v>
       </c>
       <c r="E2">
-        <v>18779</v>
+        <v>18921</v>
       </c>
       <c r="F2">
-        <v>94103</v>
+        <v>94936</v>
       </c>
       <c r="G2">
-        <v>0.005461177326999999</v>
+        <v>0.0055024727729999995</v>
       </c>
       <c r="H2">
-        <v>0.007193885610600002</v>
+        <v>0.007248283169400002</v>
       </c>
     </row>
     <row r="3">
@@ -651,7 +651,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="str">
-        <v>https://www.vestby.kommune.no/2.18c119ba194d84639a5f799/1761195451343/sitevision-responsive-grids.css?gridConfigs=651.18c119ba194d84639a5f960_FLUID_GRID&amp;pushPull=false</v>
+        <v>https://www.vestby.kommune.no/2.18c119ba194d84639a5f799/1763010998949/sitevision-responsive-grids.css?gridConfigs=651.18c119ba194d84639a5f960_FLUID_GRID&amp;pushPull=false</v>
       </c>
       <c r="C3" t="str">
         <v>Stylesheet</v>
@@ -677,7 +677,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="str">
-        <v>https://www.vestby.kommune.no/2.18c119ba194d84639a5f799/52738/3926/print/SiteVision.css</v>
+        <v>https://www.vestby.kommune.no/2.18c119ba194d84639a5f799/0/2688/print/SiteVision.css</v>
       </c>
       <c r="C4" t="str">
         <v>Stylesheet</v>
@@ -686,16 +686,16 @@
         <v>text/css</v>
       </c>
       <c r="E4">
-        <v>5917</v>
+        <v>5936</v>
       </c>
       <c r="F4">
-        <v>68558</v>
+        <v>68556</v>
       </c>
       <c r="G4">
-        <v>0.0017207405209999998</v>
+        <v>0.0017262659679999999</v>
       </c>
       <c r="H4">
-        <v>0.0022666926438</v>
+        <v>0.0022739711904</v>
       </c>
     </row>
     <row r="5">
@@ -703,7 +703,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="str">
-        <v>https://www.vestby.kommune.no/sitevision/system-resource/a89de083b1c4d2f884e692c3099295ea972d5f9700cd300f5a4a948226b09800/css/portlets.css</v>
+        <v>https://www.vestby.kommune.no/sitevision/system-resource/1a0aeeb4aa5ea8b6da6e5e4e5e46eccf98e45b58651c1a99defa705520a49ad1/css/portlets.css</v>
       </c>
       <c r="C5" t="str">
         <v>Stylesheet</v>
@@ -712,16 +712,16 @@
         <v>text/css</v>
       </c>
       <c r="E5">
-        <v>7023</v>
+        <v>7236</v>
       </c>
       <c r="F5">
-        <v>40322</v>
+        <v>42372</v>
       </c>
       <c r="G5">
-        <v>0.0020423796989999994</v>
+        <v>0.0021043228679999996</v>
       </c>
       <c r="H5">
-        <v>0.0026903806722</v>
+        <v>0.0027719770104000004</v>
       </c>
     </row>
     <row r="6">
@@ -729,7 +729,7 @@
         <v>1</v>
       </c>
       <c r="B6" t="str">
-        <v>https://www.vestby.kommune.no/sitevision/system-resource/a89de083b1c4d2f884e692c3099295ea972d5f9700cd300f5a4a948226b09800/envision/envision.css</v>
+        <v>https://www.vestby.kommune.no/sitevision/system-resource/1a0aeeb4aa5ea8b6da6e5e4e5e46eccf98e45b58651c1a99defa705520a49ad1/envision/envision.css</v>
       </c>
       <c r="C6" t="str">
         <v>Stylesheet</v>
@@ -738,16 +738,16 @@
         <v>text/css</v>
       </c>
       <c r="E6">
-        <v>22078</v>
+        <v>22101</v>
       </c>
       <c r="F6">
-        <v>255322</v>
+        <v>255462</v>
       </c>
       <c r="G6">
-        <v>0.006420569413999999</v>
+        <v>0.006427258112999999</v>
       </c>
       <c r="H6">
-        <v>0.0084576711492</v>
+        <v>0.0084664820214</v>
       </c>
     </row>
     <row r="7">
@@ -755,7 +755,7 @@
         <v>1</v>
       </c>
       <c r="B7" t="str">
-        <v>https://www.vestby.kommune.no/2.18c119ba194d84639a5f799/91.18c119ba194d84639a5fcdf/1761196246887/0/sv-template-asset.css</v>
+        <v>https://www.vestby.kommune.no/2.18c119ba194d84639a5f799/91.18c119ba194d84639a5fcdf/1763011215023/0/sv-template-asset.css</v>
       </c>
       <c r="C7" t="str">
         <v>Stylesheet</v>
@@ -781,7 +781,7 @@
         <v>1</v>
       </c>
       <c r="B8" t="str">
-        <v>https://www.vestby.kommune.no/2.18c119ba194d84639a5f799/1761196246646/sitevision-spacing.css</v>
+        <v>https://www.vestby.kommune.no/2.18c119ba194d84639a5f799/1763011214840/sitevision-spacing.css</v>
       </c>
       <c r="C8" t="str">
         <v>Stylesheet</v>
@@ -885,7 +885,7 @@
         <v>1</v>
       </c>
       <c r="B12" t="str">
-        <v>https://www.vestby.kommune.no/webapp-resource/2.18c119ba194d84639a5f799/360.3166a6719936f882c7721a/1758904332733/webapp-assets.css</v>
+        <v>https://www.vestby.kommune.no/webapp-resource/2.18c119ba194d84639a5f799/360.30704b35196f64afede7325/1749486735769/webapp-assets.css</v>
       </c>
       <c r="C12" t="str">
         <v>Stylesheet</v>
@@ -894,16 +894,16 @@
         <v>text/css</v>
       </c>
       <c r="E12">
-        <v>1015</v>
+        <v>1598</v>
       </c>
       <c r="F12">
-        <v>2664</v>
+        <v>4404</v>
       </c>
       <c r="G12">
-        <v>0.000295175195</v>
+        <v>0.00046471917399999995</v>
       </c>
       <c r="H12">
-        <v>0.000388827621</v>
+        <v>0.0006121640772000001</v>
       </c>
     </row>
     <row r="13">
@@ -911,7 +911,7 @@
         <v>1</v>
       </c>
       <c r="B13" t="str">
-        <v>https://www.vestby.kommune.no/webapp-resource/2.18c119ba194d84639a5f799/360.30704b35196f64afede7325/1749486735769/webapp-assets.css</v>
+        <v>https://www.vestby.kommune.no/webapp-resource/2.18c119ba194d84639a5f799/360.dc1a1cc1993704ee3a405/1757608293360/webapp-assets.css</v>
       </c>
       <c r="C13" t="str">
         <v>Stylesheet</v>
@@ -920,16 +920,16 @@
         <v>text/css</v>
       </c>
       <c r="E13">
-        <v>1598</v>
+        <v>1175</v>
       </c>
       <c r="F13">
-        <v>4404</v>
+        <v>2458</v>
       </c>
       <c r="G13">
-        <v>0.00046471917399999995</v>
+        <v>0.00034170527499999997</v>
       </c>
       <c r="H13">
-        <v>0.0006121640772000001</v>
+        <v>0.0004501206450000001</v>
       </c>
     </row>
     <row r="14">
@@ -937,7 +937,7 @@
         <v>1</v>
       </c>
       <c r="B14" t="str">
-        <v>https://www.vestby.kommune.no/webapp-resource/2.18c119ba194d84639a5f799/360.dc1a1cc1993704ee3a405/1757608293360/webapp-assets.css</v>
+        <v>https://www.vestby.kommune.no/webapp-resource/2.18c119ba194d84639a5f799/360.30704b35196f64afede7323/1749486735033/webapp-assets.css</v>
       </c>
       <c r="C14" t="str">
         <v>Stylesheet</v>
@@ -946,16 +946,16 @@
         <v>text/css</v>
       </c>
       <c r="E14">
-        <v>1175</v>
+        <v>992</v>
       </c>
       <c r="F14">
-        <v>2458</v>
+        <v>1403</v>
       </c>
       <c r="G14">
-        <v>0.00034170527499999997</v>
+        <v>0.000288486496</v>
       </c>
       <c r="H14">
-        <v>0.0004501206450000001</v>
+        <v>0.0003800167488000001</v>
       </c>
     </row>
     <row r="15">
@@ -963,7 +963,7 @@
         <v>1</v>
       </c>
       <c r="B15" t="str">
-        <v>https://www.vestby.kommune.no/webapp-resource/2.18c119ba194d84639a5f799/360.30704b35196f64afede7323/1749486735033/webapp-assets.css</v>
+        <v>https://www.vestby.kommune.no/webapp-resource/2.18c119ba194d84639a5f799/360.4252f3f5198cae25f9464f/1755793899343/webapp-assets.css</v>
       </c>
       <c r="C15" t="str">
         <v>Stylesheet</v>
@@ -972,16 +972,16 @@
         <v>text/css</v>
       </c>
       <c r="E15">
-        <v>992</v>
+        <v>1145</v>
       </c>
       <c r="F15">
-        <v>1403</v>
+        <v>2238</v>
       </c>
       <c r="G15">
-        <v>0.000288486496</v>
+        <v>0.00033298088499999996</v>
       </c>
       <c r="H15">
-        <v>0.0003800167488000001</v>
+        <v>0.00043862820300000005</v>
       </c>
     </row>
     <row r="16">
@@ -989,7 +989,7 @@
         <v>1</v>
       </c>
       <c r="B16" t="str">
-        <v>https://www.vestby.kommune.no/webapp-resource/2.18c119ba194d84639a5f799/360.4252f3f5198cae25f9464f/1755793899343/webapp-assets.css</v>
+        <v>https://www.vestby.kommune.no/webapp-resource/2.18c119ba194d84639a5f799/360.2eacad2219a0f6ddb02b910/1762968646434/webapp-assets.css</v>
       </c>
       <c r="C16" t="str">
         <v>Stylesheet</v>
@@ -998,16 +998,16 @@
         <v>text/css</v>
       </c>
       <c r="E16">
-        <v>1145</v>
+        <v>1015</v>
       </c>
       <c r="F16">
-        <v>2238</v>
+        <v>2664</v>
       </c>
       <c r="G16">
-        <v>0.00033298088499999996</v>
+        <v>0.000295175195</v>
       </c>
       <c r="H16">
-        <v>0.00043862820300000005</v>
+        <v>0.000388827621</v>
       </c>
     </row>
     <row r="17">
@@ -1015,7 +1015,7 @@
         <v>1</v>
       </c>
       <c r="B17" t="str">
-        <v>https://www.vestby.kommune.no/sitevision/system-resource/a89de083b1c4d2f884e692c3099295ea972d5f9700cd300f5a4a948226b09800/js/jquery.js</v>
+        <v>https://www.vestby.kommune.no/sitevision/system-resource/1a0aeeb4aa5ea8b6da6e5e4e5e46eccf98e45b58651c1a99defa705520a49ad1/js/jquery.js</v>
       </c>
       <c r="C17" t="str">
         <v>Script</v>
@@ -1041,7 +1041,7 @@
         <v>1</v>
       </c>
       <c r="B18" t="str">
-        <v>https://www.vestby.kommune.no/sitevision/system-resource/a89de083b1c4d2f884e692c3099295ea972d5f9700cd300f5a4a948226b09800/envision/envision.js</v>
+        <v>https://www.vestby.kommune.no/sitevision/system-resource/1a0aeeb4aa5ea8b6da6e5e4e5e46eccf98e45b58651c1a99defa705520a49ad1/envision/envision.js</v>
       </c>
       <c r="C18" t="str">
         <v>Script</v>
@@ -1050,16 +1050,16 @@
         <v>text/javascript</v>
       </c>
       <c r="E18">
-        <v>17895</v>
+        <v>17837</v>
       </c>
       <c r="F18">
-        <v>71690</v>
+        <v>71762</v>
       </c>
       <c r="G18">
-        <v>0.0052040986349999995</v>
+        <v>0.005187231480999999</v>
       </c>
       <c r="H18">
-        <v>0.006855241653</v>
+        <v>0.006833022931799999</v>
       </c>
     </row>
     <row r="19">
@@ -1067,7 +1067,7 @@
         <v>1</v>
       </c>
       <c r="B19" t="str">
-        <v>https://www.vestby.kommune.no/sitevision/system-resource/a89de083b1c4d2f884e692c3099295ea972d5f9700cd300f5a4a948226b09800/js/utils.js</v>
+        <v>https://www.vestby.kommune.no/sitevision/system-resource/1a0aeeb4aa5ea8b6da6e5e4e5e46eccf98e45b58651c1a99defa705520a49ad1/js/utils.js</v>
       </c>
       <c r="C19" t="str">
         <v>Script</v>
@@ -1076,16 +1076,16 @@
         <v>text/javascript</v>
       </c>
       <c r="E19">
-        <v>18832</v>
+        <v>18673</v>
       </c>
       <c r="F19">
-        <v>58222</v>
+        <v>58086</v>
       </c>
       <c r="G19">
-        <v>0.005476590415999999</v>
+        <v>0.005430351149</v>
       </c>
       <c r="H19">
-        <v>0.0072141889247999995</v>
+        <v>0.007153278982200001</v>
       </c>
     </row>
     <row r="20">
@@ -1093,7 +1093,7 @@
         <v>1</v>
       </c>
       <c r="B20" t="str">
-        <v>https://www.vestby.kommune.no/sitevision/system-resource/a89de083b1c4d2f884e692c3099295ea972d5f9700cd300f5a4a948226b09800/js/portlets.js</v>
+        <v>https://www.vestby.kommune.no/sitevision/system-resource/1a0aeeb4aa5ea8b6da6e5e4e5e46eccf98e45b58651c1a99defa705520a49ad1/js/portlets.js</v>
       </c>
       <c r="C20" t="str">
         <v>Script</v>
@@ -1102,16 +1102,16 @@
         <v>text/javascript</v>
       </c>
       <c r="E20">
-        <v>39317</v>
+        <v>38892</v>
       </c>
       <c r="F20">
-        <v>152113</v>
+        <v>149358</v>
       </c>
       <c r="G20">
-        <v>0.011433894720999998</v>
+        <v>0.011310299195999999</v>
       </c>
       <c r="H20">
-        <v>0.015061611403800003</v>
+        <v>0.014898801808799999</v>
       </c>
     </row>
     <row r="21">
@@ -1171,7 +1171,7 @@
         <v>1</v>
       </c>
       <c r="B23" t="str">
-        <v>https://www.vestby.kommune.no/images/200.6bd81ce219a0f6105ac9db6/1762778619199/Vannm%C3%A5ler_kuplinger.jpg</v>
+        <v>https://www.vestby.kommune.no/images/200.3d01d52e19a7bbe3b4b744/1763112729654/Festen%20En%20danseforestilling%20for%20av%20og%20med%20ungdom.jpg</v>
       </c>
       <c r="C23" t="str">
         <v>Image</v>
@@ -1180,16 +1180,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E23">
-        <v>13743</v>
+        <v>79732</v>
       </c>
       <c r="F23">
-        <v>13454</v>
+        <v>79443</v>
       </c>
       <c r="G23">
-        <v>0.003996643059</v>
+        <v>0.023187102115999995</v>
       </c>
       <c r="H23">
-        <v>0.0052646876802</v>
+        <v>0.0305438461848</v>
       </c>
     </row>
     <row r="24">
@@ -1197,25 +1197,25 @@
         <v>1</v>
       </c>
       <c r="B24" t="str">
-        <v>https://www.vestby.kommune.no/images/200.6bd81ce219a0f6105ac8e36/1762620576326/Marianne%20H%C3%B8ymer%20fikk%20kulturprisen%208.%20november%202025.webp</v>
+        <v>https://www.vestby.kommune.no/images/200.2eacad2219a0f6ddb02b519/1762940405538/Offisiell%20%C3%A5pning%20av%20dagsenter%20for%20personer%20med%20demens%20p%C3%A5%20Funny%20Farm%20%20Foto%20Vestby%20kommune_4.jpg</v>
       </c>
       <c r="C24" t="str">
         <v>Image</v>
       </c>
       <c r="D24" t="str">
-        <v>image/webp</v>
+        <v>image/jpeg</v>
       </c>
       <c r="E24">
-        <v>58833</v>
+        <v>82368</v>
       </c>
       <c r="F24">
-        <v>58544</v>
+        <v>82079</v>
       </c>
       <c r="G24">
-        <v>0.017109401229</v>
+        <v>0.023953685183999998</v>
       </c>
       <c r="H24">
-        <v>0.022537828006199998</v>
+        <v>0.0315536487552</v>
       </c>
     </row>
     <row r="25">
@@ -1223,25 +1223,25 @@
         <v>1</v>
       </c>
       <c r="B25" t="str">
-        <v>https://www.vestby.kommune.no/images/200.6bd81ce219a0f6105ac6a92/1762260086127/Folkehelseunders%C3%B8kelsen.jpg</v>
+        <v>https://www.vestby.kommune.no/images/200.6bd81ce219a0f6105acaf84/1762935566555/artem-kovalev-jGN7JUKZcU0-unsplash.webp</v>
       </c>
       <c r="C25" t="str">
         <v>Image</v>
       </c>
       <c r="D25" t="str">
-        <v>image/jpeg</v>
+        <v>image/webp</v>
       </c>
       <c r="E25">
-        <v>55736</v>
+        <v>18299</v>
       </c>
       <c r="F25">
-        <v>55447</v>
+        <v>18010</v>
       </c>
       <c r="G25">
-        <v>0.016208753367999998</v>
+        <v>0.005321587086999999</v>
       </c>
       <c r="H25">
-        <v>0.021351424910400003</v>
+        <v>0.007010006538600001</v>
       </c>
     </row>
     <row r="26">
@@ -1327,7 +1327,7 @@
         <v>1</v>
       </c>
       <c r="B29" t="str">
-        <v>https://www.vestby.kommune.no/2.18c119ba194d84639a5f799/91.18c119ba194d84639a5fcdf/1761196246892/BODY/0/sv-template-asset.js</v>
+        <v>https://www.vestby.kommune.no/2.18c119ba194d84639a5f799/91.18c119ba194d84639a5fcdf/1763011215029/BODY/0/sv-template-asset.js</v>
       </c>
       <c r="C29" t="str">
         <v>Script</v>
@@ -1353,7 +1353,7 @@
         <v>1</v>
       </c>
       <c r="B30" t="str">
-        <v>https://www.vestby.kommune.no/sitevision/system-resource/a89de083b1c4d2f884e692c3099295ea972d5f9700cd300f5a4a948226b09800/js/webAppExternals/react_18_3.js</v>
+        <v>https://www.vestby.kommune.no/sitevision/system-resource/1a0aeeb4aa5ea8b6da6e5e4e5e46eccf98e45b58651c1a99defa705520a49ad1/js/webAppExternals/react_18_3.js</v>
       </c>
       <c r="C30" t="str">
         <v>Script</v>
@@ -1388,16 +1388,16 @@
         <v>text/javascript</v>
       </c>
       <c r="E31">
-        <v>22977</v>
+        <v>22978</v>
       </c>
       <c r="F31">
         <v>69596</v>
       </c>
       <c r="G31">
-        <v>0.006682010300999999</v>
+        <v>0.006682301113999999</v>
       </c>
       <c r="H31">
-        <v>0.0088020613278</v>
+        <v>0.0088024444092</v>
       </c>
     </row>
     <row r="32">
@@ -1414,16 +1414,16 @@
         <v>text/javascript</v>
       </c>
       <c r="E32">
-        <v>41219</v>
+        <v>41227</v>
       </c>
       <c r="F32">
         <v>138254</v>
       </c>
       <c r="G32">
-        <v>0.011987021046999998</v>
+        <v>0.011989347550999998</v>
       </c>
       <c r="H32">
-        <v>0.015790232226600004</v>
+        <v>0.015793296877799998</v>
       </c>
     </row>
     <row r="33">
@@ -1431,7 +1431,7 @@
         <v>1</v>
       </c>
       <c r="B33" t="str">
-        <v>https://www.vestby.kommune.no/webapp-resource/2.18c119ba194d84639a5f799/360.3166a6719936f882c7721a/1758904332733/webapp-assets.js</v>
+        <v>https://www.vestby.kommune.no/webapp-resource/2.18c119ba194d84639a5f799/360.30704b35196f64afede7325/1749486735769/webapp-assets.js</v>
       </c>
       <c r="C33" t="str">
         <v>Script</v>
@@ -1440,16 +1440,16 @@
         <v>text/javascript</v>
       </c>
       <c r="E33">
-        <v>7627</v>
+        <v>24570</v>
       </c>
       <c r="F33">
-        <v>38992</v>
+        <v>74871</v>
       </c>
       <c r="G33">
-        <v>0.0022180307509999998</v>
+        <v>0.00714527541</v>
       </c>
       <c r="H33">
-        <v>0.0029217618378</v>
+        <v>0.009412309998000001</v>
       </c>
     </row>
     <row r="34">
@@ -1457,7 +1457,7 @@
         <v>1</v>
       </c>
       <c r="B34" t="str">
-        <v>https://www.vestby.kommune.no/webapp-resource/2.18c119ba194d84639a5f799/360.30704b35196f64afede7325/1749486735769/webapp-assets.js</v>
+        <v>https://www.vestby.kommune.no/webapp-resource/2.18c119ba194d84639a5f799/360.dc1a1cc1993704ee3a405/1757608293360/webapp-assets.js</v>
       </c>
       <c r="C34" t="str">
         <v>Script</v>
@@ -1466,16 +1466,16 @@
         <v>text/javascript</v>
       </c>
       <c r="E34">
-        <v>24570</v>
+        <v>20385</v>
       </c>
       <c r="F34">
-        <v>74871</v>
+        <v>60802</v>
       </c>
       <c r="G34">
-        <v>0.00714527541</v>
+        <v>0.005928223004999999</v>
       </c>
       <c r="H34">
-        <v>0.009412309998000001</v>
+        <v>0.007809114339000001</v>
       </c>
     </row>
     <row r="35">
@@ -1483,7 +1483,7 @@
         <v>1</v>
       </c>
       <c r="B35" t="str">
-        <v>https://www.vestby.kommune.no/webapp-resource/2.18c119ba194d84639a5f799/360.dc1a1cc1993704ee3a405/1757608293360/webapp-assets.js</v>
+        <v>https://www.vestby.kommune.no/webapp-resource/2.18c119ba194d84639a5f799/360.30704b35196f64afede7323/1749486735033/webapp-assets.js</v>
       </c>
       <c r="C35" t="str">
         <v>Script</v>
@@ -1492,16 +1492,16 @@
         <v>text/javascript</v>
       </c>
       <c r="E35">
-        <v>20378</v>
+        <v>19913</v>
       </c>
       <c r="F35">
-        <v>60802</v>
+        <v>58733</v>
       </c>
       <c r="G35">
-        <v>0.005926187313999999</v>
+        <v>0.005790959268999999</v>
       </c>
       <c r="H35">
-        <v>0.007806432769199999</v>
+        <v>0.007628299918200001</v>
       </c>
     </row>
     <row r="36">
@@ -1509,7 +1509,7 @@
         <v>1</v>
       </c>
       <c r="B36" t="str">
-        <v>https://www.vestby.kommune.no/webapp-resource/2.18c119ba194d84639a5f799/360.30704b35196f64afede7323/1749486735033/webapp-assets.js</v>
+        <v>https://www.vestby.kommune.no/webapp-resource/2.18c119ba194d84639a5f799/360.2eacad2219a0f6ddb02b910/1762968646434/webapp-assets.js</v>
       </c>
       <c r="C36" t="str">
         <v>Script</v>
@@ -1518,16 +1518,16 @@
         <v>text/javascript</v>
       </c>
       <c r="E36">
-        <v>19906</v>
+        <v>7880</v>
       </c>
       <c r="F36">
-        <v>58733</v>
+        <v>39790</v>
       </c>
       <c r="G36">
-        <v>0.005788923577999999</v>
+        <v>0.0022916064399999994</v>
       </c>
       <c r="H36">
-        <v>0.0076256183484000005</v>
+        <v>0.0030186814320000005</v>
       </c>
     </row>
     <row r="37">
@@ -1535,7 +1535,7 @@
         <v>1</v>
       </c>
       <c r="B37" t="str">
-        <v>https://www.vestby.kommune.no/sitevision/system-resource/a89de083b1c4d2f884e692c3099295ea972d5f9700cd300f5a4a948226b09800/webapps/webapp_sdk-legacy.js</v>
+        <v>https://www.vestby.kommune.no/sitevision/system-resource/1a0aeeb4aa5ea8b6da6e5e4e5e46eccf98e45b58651c1a99defa705520a49ad1/webapps/webapp_sdk-legacy.js</v>
       </c>
       <c r="C37" t="str">
         <v>Script</v>
@@ -1596,16 +1596,16 @@
         <v>application/javascript</v>
       </c>
       <c r="E39">
-        <v>13691</v>
+        <v>13694</v>
       </c>
       <c r="F39">
         <v>43534</v>
       </c>
       <c r="G39">
-        <v>0.003981520783</v>
+        <v>0.003982393221999999</v>
       </c>
       <c r="H39">
-        <v>0.005244767447400001</v>
+        <v>0.005245916691600001</v>
       </c>
     </row>
     <row r="40">
@@ -1847,7 +1847,7 @@
         <v>1</v>
       </c>
       <c r="B49" t="str">
-        <v>https://www.vestby.kommune.no/sitevision/system-resource/a89de083b1c4d2f884e692c3099295ea972d5f9700cd300f5a4a948226b09800/envision/popper-1c40e6672ac9d88ded8c.js</v>
+        <v>https://www.vestby.kommune.no/sitevision/system-resource/1a0aeeb4aa5ea8b6da6e5e4e5e46eccf98e45b58651c1a99defa705520a49ad1/envision/popper-7d0017b4b0eee8522ac7.js</v>
       </c>
       <c r="C49" t="str">
         <v>Script</v>
@@ -1856,16 +1856,16 @@
         <v>text/javascript</v>
       </c>
       <c r="E49">
-        <v>6837</v>
+        <v>6812</v>
       </c>
       <c r="F49">
-        <v>19616</v>
+        <v>19517</v>
       </c>
       <c r="G49">
-        <v>0.0019882884809999998</v>
+        <v>0.001981018156</v>
       </c>
       <c r="H49">
-        <v>0.0026191275318</v>
+        <v>0.0026095504968</v>
       </c>
     </row>
     <row r="50">
@@ -1873,7 +1873,7 @@
         <v>1</v>
       </c>
       <c r="B50" t="str">
-        <v>https://6002261.global.siteimproveanalytics.io/image.aspx?url=https%3A%2F%2Fwww.vestby.kommune.no%2F&amp;title=VESTBY%20KOMMUNE&amp;res=412x823&amp;accountid=6002261&amp;rt=587&amp;prev=6c84df06-bcdd-9d65-a13f-92383f44e0a9&amp;luid=90a7c271-64fb-2981-f9e3-f80b085d56a0&amp;rnd=92888</v>
+        <v>https://6002261.global.siteimproveanalytics.io/image.aspx?url=https%3A%2F%2Fwww.vestby.kommune.no%2F&amp;title=VESTBY%20KOMMUNE&amp;res=412x823&amp;accountid=6002261&amp;rt=469&amp;prev=1748ea41-1c02-d86d-87de-d378400fc2b4&amp;luid=1d48ac66-e42b-cb52-f069-68dbf3586a71&amp;rnd=96896</v>
       </c>
       <c r="C50" t="str">
         <v>Image</v>
@@ -1899,7 +1899,7 @@
         <v>1</v>
       </c>
       <c r="B51" t="str">
-        <v>https://speech14.leseweb.dk/script/unfj0937245pbcd6c35q.css</v>
+        <v>https://speech20.leseweb.dk/script/unfj0937245pbcd6c35q.css</v>
       </c>
       <c r="C51" t="str">
         <v>Stylesheet</v>
@@ -1925,7 +1925,7 @@
         <v>1</v>
       </c>
       <c r="B52" t="str">
-        <v>https://speech14.leseweb.dk/rawfiles/extern2.min.js</v>
+        <v>https://speech20.leseweb.dk/rawfiles/extern2.min.js</v>
       </c>
       <c r="C52" t="str">
         <v>Script</v>
@@ -1951,7 +1951,7 @@
         <v>1</v>
       </c>
       <c r="B53" t="str">
-        <v>https://speech14.leseweb.dk/rawfiles/vfact2.min.js</v>
+        <v>https://speech20.leseweb.dk/rawfiles/vfact2.min.js</v>
       </c>
       <c r="C53" t="str">
         <v>Script</v>
@@ -1960,16 +1960,16 @@
         <v>text/javascript</v>
       </c>
       <c r="E53">
-        <v>13136</v>
+        <v>13135</v>
       </c>
       <c r="F53">
         <v>42732</v>
       </c>
       <c r="G53">
-        <v>0.0038201195679999993</v>
+        <v>0.0038198287549999995</v>
       </c>
       <c r="H53">
-        <v>0.005032157270400001</v>
+        <v>0.005031774189000001</v>
       </c>
     </row>
     <row r="54">
@@ -2194,16 +2194,16 @@
         <v>text/html</v>
       </c>
       <c r="E62">
-        <v>18777</v>
+        <v>18923</v>
       </c>
       <c r="F62">
-        <v>94103</v>
+        <v>94936</v>
       </c>
       <c r="G62">
-        <v>0.005460595700999999</v>
+        <v>0.005503054399</v>
       </c>
       <c r="H62">
-        <v>0.0071931194478000015</v>
+        <v>0.007249049332200001</v>
       </c>
     </row>
     <row r="63">
@@ -2211,7 +2211,7 @@
         <v>2</v>
       </c>
       <c r="B63" t="str">
-        <v>https://www.vestby.kommune.no/2.18c119ba194d84639a5f799/1761195451343/sitevision-responsive-grids.css?gridConfigs=651.18c119ba194d84639a5f960_FLUID_GRID&amp;pushPull=false</v>
+        <v>https://www.vestby.kommune.no/2.18c119ba194d84639a5f799/1763012658279/sitevision-responsive-grids.css?gridConfigs=651.18c119ba194d84639a5f960_FLUID_GRID&amp;pushPull=false</v>
       </c>
       <c r="C63" t="str">
         <v>Stylesheet</v>
@@ -2237,7 +2237,7 @@
         <v>2</v>
       </c>
       <c r="B64" t="str">
-        <v>https://www.vestby.kommune.no/2.18c119ba194d84639a5f799/52738/3926/print/SiteVision.css</v>
+        <v>https://www.vestby.kommune.no/2.18c119ba194d84639a5f799/0/9088/print/SiteVision.css</v>
       </c>
       <c r="C64" t="str">
         <v>Stylesheet</v>
@@ -2246,16 +2246,16 @@
         <v>text/css</v>
       </c>
       <c r="E64">
-        <v>5917</v>
+        <v>5936</v>
       </c>
       <c r="F64">
-        <v>68558</v>
+        <v>68556</v>
       </c>
       <c r="G64">
-        <v>0.0017207405209999998</v>
+        <v>0.0017262659679999999</v>
       </c>
       <c r="H64">
-        <v>0.0022666926438</v>
+        <v>0.0022739711904</v>
       </c>
     </row>
     <row r="65">
@@ -2263,7 +2263,7 @@
         <v>2</v>
       </c>
       <c r="B65" t="str">
-        <v>https://www.vestby.kommune.no/sitevision/system-resource/a89de083b1c4d2f884e692c3099295ea972d5f9700cd300f5a4a948226b09800/css/portlets.css</v>
+        <v>https://www.vestby.kommune.no/sitevision/system-resource/1a0aeeb4aa5ea8b6da6e5e4e5e46eccf98e45b58651c1a99defa705520a49ad1/css/portlets.css</v>
       </c>
       <c r="C65" t="str">
         <v>Stylesheet</v>
@@ -2272,16 +2272,16 @@
         <v>text/css</v>
       </c>
       <c r="E65">
-        <v>7023</v>
+        <v>7236</v>
       </c>
       <c r="F65">
-        <v>40322</v>
+        <v>42372</v>
       </c>
       <c r="G65">
-        <v>0.0020423796989999994</v>
+        <v>0.0021043228679999996</v>
       </c>
       <c r="H65">
-        <v>0.0026903806722</v>
+        <v>0.0027719770104000004</v>
       </c>
     </row>
     <row r="66">
@@ -2289,7 +2289,7 @@
         <v>2</v>
       </c>
       <c r="B66" t="str">
-        <v>https://www.vestby.kommune.no/sitevision/system-resource/a89de083b1c4d2f884e692c3099295ea972d5f9700cd300f5a4a948226b09800/envision/envision.css</v>
+        <v>https://www.vestby.kommune.no/sitevision/system-resource/1a0aeeb4aa5ea8b6da6e5e4e5e46eccf98e45b58651c1a99defa705520a49ad1/envision/envision.css</v>
       </c>
       <c r="C66" t="str">
         <v>Stylesheet</v>
@@ -2298,16 +2298,16 @@
         <v>text/css</v>
       </c>
       <c r="E66">
-        <v>22078</v>
+        <v>22101</v>
       </c>
       <c r="F66">
-        <v>255322</v>
+        <v>255462</v>
       </c>
       <c r="G66">
-        <v>0.006420569413999999</v>
+        <v>0.006427258112999999</v>
       </c>
       <c r="H66">
-        <v>0.0084576711492</v>
+        <v>0.0084664820214</v>
       </c>
     </row>
     <row r="67">
@@ -2315,7 +2315,7 @@
         <v>2</v>
       </c>
       <c r="B67" t="str">
-        <v>https://www.vestby.kommune.no/2.18c119ba194d84639a5f799/91.18c119ba194d84639a5fcdf/1761196246887/0/sv-template-asset.css</v>
+        <v>https://www.vestby.kommune.no/2.18c119ba194d84639a5f799/91.18c119ba194d84639a5fcdf/1763012901456/0/sv-template-asset.css</v>
       </c>
       <c r="C67" t="str">
         <v>Stylesheet</v>
@@ -2341,7 +2341,7 @@
         <v>2</v>
       </c>
       <c r="B68" t="str">
-        <v>https://www.vestby.kommune.no/2.18c119ba194d84639a5f799/1761196246646/sitevision-spacing.css</v>
+        <v>https://www.vestby.kommune.no/2.18c119ba194d84639a5f799/1763012841573/sitevision-spacing.css</v>
       </c>
       <c r="C68" t="str">
         <v>Stylesheet</v>
@@ -2445,7 +2445,7 @@
         <v>2</v>
       </c>
       <c r="B72" t="str">
-        <v>https://www.vestby.kommune.no/webapp-resource/2.18c119ba194d84639a5f799/360.3166a6719936f882c7721a/1758904332733/webapp-assets.css</v>
+        <v>https://www.vestby.kommune.no/webapp-resource/2.18c119ba194d84639a5f799/360.30704b35196f64afede7325/1749486735769/webapp-assets.css</v>
       </c>
       <c r="C72" t="str">
         <v>Stylesheet</v>
@@ -2454,16 +2454,16 @@
         <v>text/css</v>
       </c>
       <c r="E72">
-        <v>1015</v>
+        <v>1598</v>
       </c>
       <c r="F72">
-        <v>2664</v>
+        <v>4404</v>
       </c>
       <c r="G72">
-        <v>0.000295175195</v>
+        <v>0.00046471917399999995</v>
       </c>
       <c r="H72">
-        <v>0.000388827621</v>
+        <v>0.0006121640772000001</v>
       </c>
     </row>
     <row r="73">
@@ -2471,7 +2471,7 @@
         <v>2</v>
       </c>
       <c r="B73" t="str">
-        <v>https://www.vestby.kommune.no/webapp-resource/2.18c119ba194d84639a5f799/360.30704b35196f64afede7325/1749486735769/webapp-assets.css</v>
+        <v>https://www.vestby.kommune.no/webapp-resource/2.18c119ba194d84639a5f799/360.dc1a1cc1993704ee3a405/1757608293360/webapp-assets.css</v>
       </c>
       <c r="C73" t="str">
         <v>Stylesheet</v>
@@ -2480,16 +2480,16 @@
         <v>text/css</v>
       </c>
       <c r="E73">
-        <v>1598</v>
+        <v>1175</v>
       </c>
       <c r="F73">
-        <v>4404</v>
+        <v>2458</v>
       </c>
       <c r="G73">
-        <v>0.00046471917399999995</v>
+        <v>0.00034170527499999997</v>
       </c>
       <c r="H73">
-        <v>0.0006121640772000001</v>
+        <v>0.0004501206450000001</v>
       </c>
     </row>
     <row r="74">
@@ -2497,7 +2497,7 @@
         <v>2</v>
       </c>
       <c r="B74" t="str">
-        <v>https://www.vestby.kommune.no/webapp-resource/2.18c119ba194d84639a5f799/360.dc1a1cc1993704ee3a405/1757608293360/webapp-assets.css</v>
+        <v>https://www.vestby.kommune.no/webapp-resource/2.18c119ba194d84639a5f799/360.30704b35196f64afede7323/1749486735033/webapp-assets.css</v>
       </c>
       <c r="C74" t="str">
         <v>Stylesheet</v>
@@ -2506,16 +2506,16 @@
         <v>text/css</v>
       </c>
       <c r="E74">
-        <v>1175</v>
+        <v>992</v>
       </c>
       <c r="F74">
-        <v>2458</v>
+        <v>1403</v>
       </c>
       <c r="G74">
-        <v>0.00034170527499999997</v>
+        <v>0.000288486496</v>
       </c>
       <c r="H74">
-        <v>0.0004501206450000001</v>
+        <v>0.0003800167488000001</v>
       </c>
     </row>
     <row r="75">
@@ -2523,7 +2523,7 @@
         <v>2</v>
       </c>
       <c r="B75" t="str">
-        <v>https://www.vestby.kommune.no/webapp-resource/2.18c119ba194d84639a5f799/360.30704b35196f64afede7323/1749486735033/webapp-assets.css</v>
+        <v>https://www.vestby.kommune.no/webapp-resource/2.18c119ba194d84639a5f799/360.4252f3f5198cae25f9464f/1755793899343/webapp-assets.css</v>
       </c>
       <c r="C75" t="str">
         <v>Stylesheet</v>
@@ -2532,16 +2532,16 @@
         <v>text/css</v>
       </c>
       <c r="E75">
-        <v>992</v>
+        <v>1145</v>
       </c>
       <c r="F75">
-        <v>1403</v>
+        <v>2238</v>
       </c>
       <c r="G75">
-        <v>0.000288486496</v>
+        <v>0.00033298088499999996</v>
       </c>
       <c r="H75">
-        <v>0.0003800167488000001</v>
+        <v>0.00043862820300000005</v>
       </c>
     </row>
     <row r="76">
@@ -2549,7 +2549,7 @@
         <v>2</v>
       </c>
       <c r="B76" t="str">
-        <v>https://www.vestby.kommune.no/webapp-resource/2.18c119ba194d84639a5f799/360.4252f3f5198cae25f9464f/1755793899343/webapp-assets.css</v>
+        <v>https://www.vestby.kommune.no/webapp-resource/2.18c119ba194d84639a5f799/360.2eacad2219a0f6ddb02b910/1762968646434/webapp-assets.css</v>
       </c>
       <c r="C76" t="str">
         <v>Stylesheet</v>
@@ -2558,16 +2558,16 @@
         <v>text/css</v>
       </c>
       <c r="E76">
-        <v>1145</v>
+        <v>1015</v>
       </c>
       <c r="F76">
-        <v>2238</v>
+        <v>2664</v>
       </c>
       <c r="G76">
-        <v>0.00033298088499999996</v>
+        <v>0.000295175195</v>
       </c>
       <c r="H76">
-        <v>0.00043862820300000005</v>
+        <v>0.000388827621</v>
       </c>
     </row>
     <row r="77">
@@ -2575,7 +2575,7 @@
         <v>2</v>
       </c>
       <c r="B77" t="str">
-        <v>https://www.vestby.kommune.no/sitevision/system-resource/a89de083b1c4d2f884e692c3099295ea972d5f9700cd300f5a4a948226b09800/js/jquery.js</v>
+        <v>https://www.vestby.kommune.no/sitevision/system-resource/1a0aeeb4aa5ea8b6da6e5e4e5e46eccf98e45b58651c1a99defa705520a49ad1/js/jquery.js</v>
       </c>
       <c r="C77" t="str">
         <v>Script</v>
@@ -2601,7 +2601,7 @@
         <v>2</v>
       </c>
       <c r="B78" t="str">
-        <v>https://www.vestby.kommune.no/sitevision/system-resource/a89de083b1c4d2f884e692c3099295ea972d5f9700cd300f5a4a948226b09800/envision/envision.js</v>
+        <v>https://www.vestby.kommune.no/sitevision/system-resource/1a0aeeb4aa5ea8b6da6e5e4e5e46eccf98e45b58651c1a99defa705520a49ad1/envision/envision.js</v>
       </c>
       <c r="C78" t="str">
         <v>Script</v>
@@ -2610,16 +2610,16 @@
         <v>text/javascript</v>
       </c>
       <c r="E78">
-        <v>17895</v>
+        <v>17837</v>
       </c>
       <c r="F78">
-        <v>71690</v>
+        <v>71762</v>
       </c>
       <c r="G78">
-        <v>0.0052040986349999995</v>
+        <v>0.005187231480999999</v>
       </c>
       <c r="H78">
-        <v>0.006855241653</v>
+        <v>0.006833022931799999</v>
       </c>
     </row>
     <row r="79">
@@ -2627,7 +2627,7 @@
         <v>2</v>
       </c>
       <c r="B79" t="str">
-        <v>https://www.vestby.kommune.no/sitevision/system-resource/a89de083b1c4d2f884e692c3099295ea972d5f9700cd300f5a4a948226b09800/js/utils.js</v>
+        <v>https://www.vestby.kommune.no/sitevision/system-resource/1a0aeeb4aa5ea8b6da6e5e4e5e46eccf98e45b58651c1a99defa705520a49ad1/js/utils.js</v>
       </c>
       <c r="C79" t="str">
         <v>Script</v>
@@ -2636,16 +2636,16 @@
         <v>text/javascript</v>
       </c>
       <c r="E79">
-        <v>18832</v>
+        <v>18673</v>
       </c>
       <c r="F79">
-        <v>58222</v>
+        <v>58086</v>
       </c>
       <c r="G79">
-        <v>0.005476590415999999</v>
+        <v>0.005430351149</v>
       </c>
       <c r="H79">
-        <v>0.0072141889247999995</v>
+        <v>0.007153278982200001</v>
       </c>
     </row>
     <row r="80">
@@ -2653,7 +2653,7 @@
         <v>2</v>
       </c>
       <c r="B80" t="str">
-        <v>https://www.vestby.kommune.no/sitevision/system-resource/a89de083b1c4d2f884e692c3099295ea972d5f9700cd300f5a4a948226b09800/js/portlets.js</v>
+        <v>https://www.vestby.kommune.no/sitevision/system-resource/1a0aeeb4aa5ea8b6da6e5e4e5e46eccf98e45b58651c1a99defa705520a49ad1/js/portlets.js</v>
       </c>
       <c r="C80" t="str">
         <v>Script</v>
@@ -2662,16 +2662,16 @@
         <v>text/javascript</v>
       </c>
       <c r="E80">
-        <v>39317</v>
+        <v>38892</v>
       </c>
       <c r="F80">
-        <v>152113</v>
+        <v>149358</v>
       </c>
       <c r="G80">
-        <v>0.011433894720999998</v>
+        <v>0.011310299195999999</v>
       </c>
       <c r="H80">
-        <v>0.015061611403800003</v>
+        <v>0.014898801808799999</v>
       </c>
     </row>
     <row r="81">
@@ -2731,7 +2731,7 @@
         <v>2</v>
       </c>
       <c r="B83" t="str">
-        <v>https://www.vestby.kommune.no/images/200.6bd81ce219a0f6105ac9db6/1762778619199/Vannm%C3%A5ler_kuplinger.jpg</v>
+        <v>https://www.vestby.kommune.no/images/200.3d01d52e19a7bbe3b4b744/1763112729654/Festen%20En%20danseforestilling%20for%20av%20og%20med%20ungdom.jpg</v>
       </c>
       <c r="C83" t="str">
         <v>Image</v>
@@ -2740,16 +2740,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E83">
-        <v>13743</v>
+        <v>79732</v>
       </c>
       <c r="F83">
-        <v>13454</v>
+        <v>79443</v>
       </c>
       <c r="G83">
-        <v>0.003996643059</v>
+        <v>0.023187102115999995</v>
       </c>
       <c r="H83">
-        <v>0.0052646876802</v>
+        <v>0.0305438461848</v>
       </c>
     </row>
     <row r="84">
@@ -2757,25 +2757,25 @@
         <v>2</v>
       </c>
       <c r="B84" t="str">
-        <v>https://www.vestby.kommune.no/images/200.6bd81ce219a0f6105ac8e36/1762620576326/Marianne%20H%C3%B8ymer%20fikk%20kulturprisen%208.%20november%202025.webp</v>
+        <v>https://www.vestby.kommune.no/images/200.2eacad2219a0f6ddb02b519/1762940405538/Offisiell%20%C3%A5pning%20av%20dagsenter%20for%20personer%20med%20demens%20p%C3%A5%20Funny%20Farm%20%20Foto%20Vestby%20kommune_4.jpg</v>
       </c>
       <c r="C84" t="str">
         <v>Image</v>
       </c>
       <c r="D84" t="str">
-        <v>image/webp</v>
+        <v>image/jpeg</v>
       </c>
       <c r="E84">
-        <v>58833</v>
+        <v>82368</v>
       </c>
       <c r="F84">
-        <v>58544</v>
+        <v>82079</v>
       </c>
       <c r="G84">
-        <v>0.017109401229</v>
+        <v>0.023953685183999998</v>
       </c>
       <c r="H84">
-        <v>0.022537828006199998</v>
+        <v>0.0315536487552</v>
       </c>
     </row>
     <row r="85">
@@ -2783,25 +2783,25 @@
         <v>2</v>
       </c>
       <c r="B85" t="str">
-        <v>https://www.vestby.kommune.no/images/200.6bd81ce219a0f6105ac6a92/1762260086127/Folkehelseunders%C3%B8kelsen.jpg</v>
+        <v>https://www.vestby.kommune.no/images/200.6bd81ce219a0f6105acaf84/1762935566555/artem-kovalev-jGN7JUKZcU0-unsplash.webp</v>
       </c>
       <c r="C85" t="str">
         <v>Image</v>
       </c>
       <c r="D85" t="str">
-        <v>image/jpeg</v>
+        <v>image/webp</v>
       </c>
       <c r="E85">
-        <v>55736</v>
+        <v>18299</v>
       </c>
       <c r="F85">
-        <v>55447</v>
+        <v>18010</v>
       </c>
       <c r="G85">
-        <v>0.016208753367999998</v>
+        <v>0.005321587086999999</v>
       </c>
       <c r="H85">
-        <v>0.021351424910400003</v>
+        <v>0.007010006538600001</v>
       </c>
     </row>
     <row r="86">
@@ -2887,7 +2887,7 @@
         <v>2</v>
       </c>
       <c r="B89" t="str">
-        <v>https://www.vestby.kommune.no/2.18c119ba194d84639a5f799/91.18c119ba194d84639a5fcdf/1761196246892/BODY/0/sv-template-asset.js</v>
+        <v>https://www.vestby.kommune.no/2.18c119ba194d84639a5f799/91.18c119ba194d84639a5fcdf/1763012901458/BODY/0/sv-template-asset.js</v>
       </c>
       <c r="C89" t="str">
         <v>Script</v>
@@ -2913,7 +2913,7 @@
         <v>2</v>
       </c>
       <c r="B90" t="str">
-        <v>https://www.vestby.kommune.no/sitevision/system-resource/a89de083b1c4d2f884e692c3099295ea972d5f9700cd300f5a4a948226b09800/js/webAppExternals/react_18_3.js</v>
+        <v>https://www.vestby.kommune.no/sitevision/system-resource/1a0aeeb4aa5ea8b6da6e5e4e5e46eccf98e45b58651c1a99defa705520a49ad1/js/webAppExternals/react_18_3.js</v>
       </c>
       <c r="C90" t="str">
         <v>Script</v>
@@ -2991,7 +2991,7 @@
         <v>2</v>
       </c>
       <c r="B93" t="str">
-        <v>https://www.vestby.kommune.no/webapp-resource/2.18c119ba194d84639a5f799/360.3166a6719936f882c7721a/1758904332733/webapp-assets.js</v>
+        <v>https://www.vestby.kommune.no/webapp-resource/2.18c119ba194d84639a5f799/360.30704b35196f64afede7325/1749486735769/webapp-assets.js</v>
       </c>
       <c r="C93" t="str">
         <v>Script</v>
@@ -3000,16 +3000,16 @@
         <v>text/javascript</v>
       </c>
       <c r="E93">
-        <v>7627</v>
+        <v>24570</v>
       </c>
       <c r="F93">
-        <v>38992</v>
+        <v>74871</v>
       </c>
       <c r="G93">
-        <v>0.0022180307509999998</v>
+        <v>0.00714527541</v>
       </c>
       <c r="H93">
-        <v>0.0029217618378</v>
+        <v>0.009412309998000001</v>
       </c>
     </row>
     <row r="94">
@@ -3017,7 +3017,7 @@
         <v>2</v>
       </c>
       <c r="B94" t="str">
-        <v>https://www.vestby.kommune.no/webapp-resource/2.18c119ba194d84639a5f799/360.30704b35196f64afede7325/1749486735769/webapp-assets.js</v>
+        <v>https://www.vestby.kommune.no/webapp-resource/2.18c119ba194d84639a5f799/360.dc1a1cc1993704ee3a405/1757608293360/webapp-assets.js</v>
       </c>
       <c r="C94" t="str">
         <v>Script</v>
@@ -3026,16 +3026,16 @@
         <v>text/javascript</v>
       </c>
       <c r="E94">
-        <v>24570</v>
+        <v>20378</v>
       </c>
       <c r="F94">
-        <v>74871</v>
+        <v>60802</v>
       </c>
       <c r="G94">
-        <v>0.00714527541</v>
+        <v>0.005926187313999999</v>
       </c>
       <c r="H94">
-        <v>0.009412309998000001</v>
+        <v>0.007806432769199999</v>
       </c>
     </row>
     <row r="95">
@@ -3043,7 +3043,7 @@
         <v>2</v>
       </c>
       <c r="B95" t="str">
-        <v>https://www.vestby.kommune.no/webapp-resource/2.18c119ba194d84639a5f799/360.dc1a1cc1993704ee3a405/1757608293360/webapp-assets.js</v>
+        <v>https://www.vestby.kommune.no/webapp-resource/2.18c119ba194d84639a5f799/360.30704b35196f64afede7323/1749486735033/webapp-assets.js</v>
       </c>
       <c r="C95" t="str">
         <v>Script</v>
@@ -3052,16 +3052,16 @@
         <v>text/javascript</v>
       </c>
       <c r="E95">
-        <v>20378</v>
+        <v>19906</v>
       </c>
       <c r="F95">
-        <v>60802</v>
+        <v>58733</v>
       </c>
       <c r="G95">
-        <v>0.005926187313999999</v>
+        <v>0.005788923577999999</v>
       </c>
       <c r="H95">
-        <v>0.007806432769199999</v>
+        <v>0.0076256183484000005</v>
       </c>
     </row>
     <row r="96">
@@ -3069,7 +3069,7 @@
         <v>2</v>
       </c>
       <c r="B96" t="str">
-        <v>https://www.vestby.kommune.no/webapp-resource/2.18c119ba194d84639a5f799/360.30704b35196f64afede7323/1749486735033/webapp-assets.js</v>
+        <v>https://www.vestby.kommune.no/webapp-resource/2.18c119ba194d84639a5f799/360.2eacad2219a0f6ddb02b910/1762968646434/webapp-assets.js</v>
       </c>
       <c r="C96" t="str">
         <v>Script</v>
@@ -3078,16 +3078,16 @@
         <v>text/javascript</v>
       </c>
       <c r="E96">
-        <v>19906</v>
+        <v>7880</v>
       </c>
       <c r="F96">
-        <v>58733</v>
+        <v>39790</v>
       </c>
       <c r="G96">
-        <v>0.005788923577999999</v>
+        <v>0.0022916064399999994</v>
       </c>
       <c r="H96">
-        <v>0.0076256183484000005</v>
+        <v>0.0030186814320000005</v>
       </c>
     </row>
     <row r="97">
@@ -3095,7 +3095,7 @@
         <v>2</v>
       </c>
       <c r="B97" t="str">
-        <v>https://www.vestby.kommune.no/sitevision/system-resource/a89de083b1c4d2f884e692c3099295ea972d5f9700cd300f5a4a948226b09800/webapps/webapp_sdk-legacy.js</v>
+        <v>https://www.vestby.kommune.no/sitevision/system-resource/1a0aeeb4aa5ea8b6da6e5e4e5e46eccf98e45b58651c1a99defa705520a49ad1/webapps/webapp_sdk-legacy.js</v>
       </c>
       <c r="C97" t="str">
         <v>Script</v>
@@ -3130,16 +3130,16 @@
         <v>text/javascript</v>
       </c>
       <c r="E98">
-        <v>6953</v>
+        <v>6952</v>
       </c>
       <c r="F98">
-        <v>21985</v>
+        <v>21983</v>
       </c>
       <c r="G98">
-        <v>0.0020220227889999995</v>
+        <v>0.0020217319759999997</v>
       </c>
       <c r="H98">
-        <v>0.0026635649742000004</v>
+        <v>0.0026631818928</v>
       </c>
     </row>
     <row r="99">
@@ -3156,16 +3156,16 @@
         <v>application/javascript</v>
       </c>
       <c r="E99">
-        <v>13684</v>
+        <v>13686</v>
       </c>
       <c r="F99">
         <v>43534</v>
       </c>
       <c r="G99">
-        <v>0.003979485091999999</v>
+        <v>0.003980066717999999</v>
       </c>
       <c r="H99">
-        <v>0.0052420858776</v>
+        <v>0.005242852040400001</v>
       </c>
     </row>
     <row r="100">
@@ -3407,7 +3407,7 @@
         <v>2</v>
       </c>
       <c r="B109" t="str">
-        <v>https://www.vestby.kommune.no/sitevision/system-resource/a89de083b1c4d2f884e692c3099295ea972d5f9700cd300f5a4a948226b09800/envision/popper-1c40e6672ac9d88ded8c.js</v>
+        <v>https://www.vestby.kommune.no/sitevision/system-resource/1a0aeeb4aa5ea8b6da6e5e4e5e46eccf98e45b58651c1a99defa705520a49ad1/envision/popper-7d0017b4b0eee8522ac7.js</v>
       </c>
       <c r="C109" t="str">
         <v>Script</v>
@@ -3416,16 +3416,16 @@
         <v>text/javascript</v>
       </c>
       <c r="E109">
-        <v>6837</v>
+        <v>6812</v>
       </c>
       <c r="F109">
-        <v>19616</v>
+        <v>19517</v>
       </c>
       <c r="G109">
-        <v>0.0019882884809999998</v>
+        <v>0.001981018156</v>
       </c>
       <c r="H109">
-        <v>0.0026191275318</v>
+        <v>0.0026095504968</v>
       </c>
     </row>
     <row r="110">
@@ -3433,7 +3433,7 @@
         <v>2</v>
       </c>
       <c r="B110" t="str">
-        <v>https://6002261.global.siteimproveanalytics.io/image.aspx?url=https%3A%2F%2Fwww.vestby.kommune.no%2F&amp;title=VESTBY%20KOMMUNE&amp;res=412x823&amp;accountid=6002261&amp;rt=641&amp;prev=e4ce073c-0189-cad6-ba38-562bf1a2bcf4&amp;luid=373f5222-b634-f440-eb3d-6cc1b843d1a6&amp;rnd=790</v>
+        <v>https://6002261.global.siteimproveanalytics.io/image.aspx?url=https%3A%2F%2Fwww.vestby.kommune.no%2F&amp;title=VESTBY%20KOMMUNE&amp;res=412x823&amp;accountid=6002261&amp;rt=464&amp;prev=0d6f7d50-8cec-4603-61e5-dce6563bceff&amp;luid=b6f7672e-10f2-e95d-848d-0744f7881e05&amp;rnd=81076</v>
       </c>
       <c r="C110" t="str">
         <v>Image</v>
@@ -3459,7 +3459,7 @@
         <v>2</v>
       </c>
       <c r="B111" t="str">
-        <v>https://speech16.leseweb.dk/script/unfj0937245pbcd6c35q.css</v>
+        <v>https://speech9.leseweb.dk/script/unfj0937245pbcd6c35q.css</v>
       </c>
       <c r="C111" t="str">
         <v>Stylesheet</v>
@@ -3485,7 +3485,7 @@
         <v>2</v>
       </c>
       <c r="B112" t="str">
-        <v>https://speech16.leseweb.dk/rawfiles/extern2.min.js</v>
+        <v>https://speech9.leseweb.dk/rawfiles/extern2.min.js</v>
       </c>
       <c r="C112" t="str">
         <v>Script</v>
@@ -3511,7 +3511,7 @@
         <v>2</v>
       </c>
       <c r="B113" t="str">
-        <v>https://speech16.leseweb.dk/rawfiles/vfact2.min.js</v>
+        <v>https://speech9.leseweb.dk/rawfiles/vfact2.min.js</v>
       </c>
       <c r="C113" t="str">
         <v>Script</v>
@@ -3520,16 +3520,16 @@
         <v>text/javascript</v>
       </c>
       <c r="E113">
-        <v>13136</v>
+        <v>13135</v>
       </c>
       <c r="F113">
-        <v>42732</v>
+        <v>42731</v>
       </c>
       <c r="G113">
-        <v>0.0038201195679999993</v>
+        <v>0.0038198287549999995</v>
       </c>
       <c r="H113">
-        <v>0.005032157270400001</v>
+        <v>0.005031774189000001</v>
       </c>
     </row>
     <row r="114">
@@ -3754,16 +3754,16 @@
         <v>text/html</v>
       </c>
       <c r="E122">
-        <v>18777</v>
+        <v>18923</v>
       </c>
       <c r="F122">
-        <v>94103</v>
+        <v>94936</v>
       </c>
       <c r="G122">
-        <v>0.005460595700999999</v>
+        <v>0.005503054399</v>
       </c>
       <c r="H122">
-        <v>0.0071931194478000015</v>
+        <v>0.007249049332200001</v>
       </c>
     </row>
     <row r="123">
@@ -3771,7 +3771,7 @@
         <v>3</v>
       </c>
       <c r="B123" t="str">
-        <v>https://www.vestby.kommune.no/2.18c119ba194d84639a5f799/1761194610456/sitevision-responsive-grids.css?gridConfigs=651.18c119ba194d84639a5f960_FLUID_GRID&amp;pushPull=false</v>
+        <v>https://www.vestby.kommune.no/2.18c119ba194d84639a5f799/1763010998949/sitevision-responsive-grids.css?gridConfigs=651.18c119ba194d84639a5f960_FLUID_GRID&amp;pushPull=false</v>
       </c>
       <c r="C123" t="str">
         <v>Stylesheet</v>
@@ -3797,7 +3797,7 @@
         <v>3</v>
       </c>
       <c r="B124" t="str">
-        <v>https://www.vestby.kommune.no/2.18c119ba194d84639a5f799/51876/6059/print/SiteVision.css</v>
+        <v>https://www.vestby.kommune.no/2.18c119ba194d84639a5f799/0/2688/print/SiteVision.css</v>
       </c>
       <c r="C124" t="str">
         <v>Stylesheet</v>
@@ -3806,16 +3806,16 @@
         <v>text/css</v>
       </c>
       <c r="E124">
-        <v>5917</v>
+        <v>5936</v>
       </c>
       <c r="F124">
-        <v>68558</v>
+        <v>68556</v>
       </c>
       <c r="G124">
-        <v>0.0017207405209999998</v>
+        <v>0.0017262659679999999</v>
       </c>
       <c r="H124">
-        <v>0.0022666926438</v>
+        <v>0.0022739711904</v>
       </c>
     </row>
     <row r="125">
@@ -3823,7 +3823,7 @@
         <v>3</v>
       </c>
       <c r="B125" t="str">
-        <v>https://www.vestby.kommune.no/sitevision/system-resource/a89de083b1c4d2f884e692c3099295ea972d5f9700cd300f5a4a948226b09800/css/portlets.css</v>
+        <v>https://www.vestby.kommune.no/sitevision/system-resource/1a0aeeb4aa5ea8b6da6e5e4e5e46eccf98e45b58651c1a99defa705520a49ad1/css/portlets.css</v>
       </c>
       <c r="C125" t="str">
         <v>Stylesheet</v>
@@ -3832,16 +3832,16 @@
         <v>text/css</v>
       </c>
       <c r="E125">
-        <v>7023</v>
+        <v>7236</v>
       </c>
       <c r="F125">
-        <v>40322</v>
+        <v>42372</v>
       </c>
       <c r="G125">
-        <v>0.0020423796989999994</v>
+        <v>0.0021043228679999996</v>
       </c>
       <c r="H125">
-        <v>0.0026903806722</v>
+        <v>0.0027719770104000004</v>
       </c>
     </row>
     <row r="126">
@@ -3849,7 +3849,7 @@
         <v>3</v>
       </c>
       <c r="B126" t="str">
-        <v>https://www.vestby.kommune.no/sitevision/system-resource/a89de083b1c4d2f884e692c3099295ea972d5f9700cd300f5a4a948226b09800/envision/envision.css</v>
+        <v>https://www.vestby.kommune.no/sitevision/system-resource/1a0aeeb4aa5ea8b6da6e5e4e5e46eccf98e45b58651c1a99defa705520a49ad1/envision/envision.css</v>
       </c>
       <c r="C126" t="str">
         <v>Stylesheet</v>
@@ -3858,16 +3858,16 @@
         <v>text/css</v>
       </c>
       <c r="E126">
-        <v>22078</v>
+        <v>22101</v>
       </c>
       <c r="F126">
-        <v>255322</v>
+        <v>255462</v>
       </c>
       <c r="G126">
-        <v>0.006420569413999999</v>
+        <v>0.006427258112999999</v>
       </c>
       <c r="H126">
-        <v>0.0084576711492</v>
+        <v>0.0084664820214</v>
       </c>
     </row>
     <row r="127">
@@ -3875,7 +3875,7 @@
         <v>3</v>
       </c>
       <c r="B127" t="str">
-        <v>https://www.vestby.kommune.no/2.18c119ba194d84639a5f799/91.18c119ba194d84639a5fcdf/1761195015475/0/sv-template-asset.css</v>
+        <v>https://www.vestby.kommune.no/2.18c119ba194d84639a5f799/91.18c119ba194d84639a5fcdf/1763011215023/0/sv-template-asset.css</v>
       </c>
       <c r="C127" t="str">
         <v>Stylesheet</v>
@@ -3901,7 +3901,7 @@
         <v>3</v>
       </c>
       <c r="B128" t="str">
-        <v>https://www.vestby.kommune.no/2.18c119ba194d84639a5f799/1761194770445/sitevision-spacing.css</v>
+        <v>https://www.vestby.kommune.no/2.18c119ba194d84639a5f799/1763011214840/sitevision-spacing.css</v>
       </c>
       <c r="C128" t="str">
         <v>Stylesheet</v>
@@ -4005,7 +4005,7 @@
         <v>3</v>
       </c>
       <c r="B132" t="str">
-        <v>https://www.vestby.kommune.no/webapp-resource/2.18c119ba194d84639a5f799/360.3166a6719936f882c7721a/1758904332733/webapp-assets.css</v>
+        <v>https://www.vestby.kommune.no/webapp-resource/2.18c119ba194d84639a5f799/360.30704b35196f64afede7325/1749486735769/webapp-assets.css</v>
       </c>
       <c r="C132" t="str">
         <v>Stylesheet</v>
@@ -4014,16 +4014,16 @@
         <v>text/css</v>
       </c>
       <c r="E132">
-        <v>1015</v>
+        <v>1598</v>
       </c>
       <c r="F132">
-        <v>2664</v>
+        <v>4404</v>
       </c>
       <c r="G132">
-        <v>0.000295175195</v>
+        <v>0.00046471917399999995</v>
       </c>
       <c r="H132">
-        <v>0.000388827621</v>
+        <v>0.0006121640772000001</v>
       </c>
     </row>
     <row r="133">
@@ -4031,7 +4031,7 @@
         <v>3</v>
       </c>
       <c r="B133" t="str">
-        <v>https://www.vestby.kommune.no/webapp-resource/2.18c119ba194d84639a5f799/360.30704b35196f64afede7325/1749486735769/webapp-assets.css</v>
+        <v>https://www.vestby.kommune.no/webapp-resource/2.18c119ba194d84639a5f799/360.dc1a1cc1993704ee3a405/1757608293360/webapp-assets.css</v>
       </c>
       <c r="C133" t="str">
         <v>Stylesheet</v>
@@ -4040,16 +4040,16 @@
         <v>text/css</v>
       </c>
       <c r="E133">
-        <v>1598</v>
+        <v>1175</v>
       </c>
       <c r="F133">
-        <v>4404</v>
+        <v>2458</v>
       </c>
       <c r="G133">
-        <v>0.00046471917399999995</v>
+        <v>0.00034170527499999997</v>
       </c>
       <c r="H133">
-        <v>0.0006121640772000001</v>
+        <v>0.0004501206450000001</v>
       </c>
     </row>
     <row r="134">
@@ -4057,7 +4057,7 @@
         <v>3</v>
       </c>
       <c r="B134" t="str">
-        <v>https://www.vestby.kommune.no/webapp-resource/2.18c119ba194d84639a5f799/360.dc1a1cc1993704ee3a405/1757608293360/webapp-assets.css</v>
+        <v>https://www.vestby.kommune.no/webapp-resource/2.18c119ba194d84639a5f799/360.30704b35196f64afede7323/1749486735033/webapp-assets.css</v>
       </c>
       <c r="C134" t="str">
         <v>Stylesheet</v>
@@ -4066,16 +4066,16 @@
         <v>text/css</v>
       </c>
       <c r="E134">
-        <v>1175</v>
+        <v>992</v>
       </c>
       <c r="F134">
-        <v>2458</v>
+        <v>1403</v>
       </c>
       <c r="G134">
-        <v>0.00034170527499999997</v>
+        <v>0.000288486496</v>
       </c>
       <c r="H134">
-        <v>0.0004501206450000001</v>
+        <v>0.0003800167488000001</v>
       </c>
     </row>
     <row r="135">
@@ -4083,7 +4083,7 @@
         <v>3</v>
       </c>
       <c r="B135" t="str">
-        <v>https://www.vestby.kommune.no/webapp-resource/2.18c119ba194d84639a5f799/360.30704b35196f64afede7323/1749486735033/webapp-assets.css</v>
+        <v>https://www.vestby.kommune.no/webapp-resource/2.18c119ba194d84639a5f799/360.4252f3f5198cae25f9464f/1755793899343/webapp-assets.css</v>
       </c>
       <c r="C135" t="str">
         <v>Stylesheet</v>
@@ -4092,16 +4092,16 @@
         <v>text/css</v>
       </c>
       <c r="E135">
-        <v>992</v>
+        <v>1145</v>
       </c>
       <c r="F135">
-        <v>1403</v>
+        <v>2238</v>
       </c>
       <c r="G135">
-        <v>0.000288486496</v>
+        <v>0.00033298088499999996</v>
       </c>
       <c r="H135">
-        <v>0.0003800167488000001</v>
+        <v>0.00043862820300000005</v>
       </c>
     </row>
     <row r="136">
@@ -4109,7 +4109,7 @@
         <v>3</v>
       </c>
       <c r="B136" t="str">
-        <v>https://www.vestby.kommune.no/webapp-resource/2.18c119ba194d84639a5f799/360.4252f3f5198cae25f9464f/1755793899343/webapp-assets.css</v>
+        <v>https://www.vestby.kommune.no/webapp-resource/2.18c119ba194d84639a5f799/360.2eacad2219a0f6ddb02b910/1762968646434/webapp-assets.css</v>
       </c>
       <c r="C136" t="str">
         <v>Stylesheet</v>
@@ -4118,16 +4118,16 @@
         <v>text/css</v>
       </c>
       <c r="E136">
-        <v>1145</v>
+        <v>1015</v>
       </c>
       <c r="F136">
-        <v>2238</v>
+        <v>2664</v>
       </c>
       <c r="G136">
-        <v>0.00033298088499999996</v>
+        <v>0.000295175195</v>
       </c>
       <c r="H136">
-        <v>0.00043862820300000005</v>
+        <v>0.000388827621</v>
       </c>
     </row>
     <row r="137">
@@ -4135,7 +4135,7 @@
         <v>3</v>
       </c>
       <c r="B137" t="str">
-        <v>https://www.vestby.kommune.no/sitevision/system-resource/a89de083b1c4d2f884e692c3099295ea972d5f9700cd300f5a4a948226b09800/js/jquery.js</v>
+        <v>https://www.vestby.kommune.no/sitevision/system-resource/1a0aeeb4aa5ea8b6da6e5e4e5e46eccf98e45b58651c1a99defa705520a49ad1/js/jquery.js</v>
       </c>
       <c r="C137" t="str">
         <v>Script</v>
@@ -4161,7 +4161,7 @@
         <v>3</v>
       </c>
       <c r="B138" t="str">
-        <v>https://www.vestby.kommune.no/sitevision/system-resource/a89de083b1c4d2f884e692c3099295ea972d5f9700cd300f5a4a948226b09800/envision/envision.js</v>
+        <v>https://www.vestby.kommune.no/sitevision/system-resource/1a0aeeb4aa5ea8b6da6e5e4e5e46eccf98e45b58651c1a99defa705520a49ad1/envision/envision.js</v>
       </c>
       <c r="C138" t="str">
         <v>Script</v>
@@ -4170,16 +4170,16 @@
         <v>text/javascript</v>
       </c>
       <c r="E138">
-        <v>17895</v>
+        <v>17837</v>
       </c>
       <c r="F138">
-        <v>71690</v>
+        <v>71762</v>
       </c>
       <c r="G138">
-        <v>0.0052040986349999995</v>
+        <v>0.005187231480999999</v>
       </c>
       <c r="H138">
-        <v>0.006855241653</v>
+        <v>0.006833022931799999</v>
       </c>
     </row>
     <row r="139">
@@ -4187,7 +4187,7 @@
         <v>3</v>
       </c>
       <c r="B139" t="str">
-        <v>https://www.vestby.kommune.no/sitevision/system-resource/a89de083b1c4d2f884e692c3099295ea972d5f9700cd300f5a4a948226b09800/js/utils.js</v>
+        <v>https://www.vestby.kommune.no/sitevision/system-resource/1a0aeeb4aa5ea8b6da6e5e4e5e46eccf98e45b58651c1a99defa705520a49ad1/js/utils.js</v>
       </c>
       <c r="C139" t="str">
         <v>Script</v>
@@ -4196,16 +4196,16 @@
         <v>text/javascript</v>
       </c>
       <c r="E139">
-        <v>18832</v>
+        <v>18673</v>
       </c>
       <c r="F139">
-        <v>58222</v>
+        <v>58086</v>
       </c>
       <c r="G139">
-        <v>0.005476590415999999</v>
+        <v>0.005430351149</v>
       </c>
       <c r="H139">
-        <v>0.0072141889247999995</v>
+        <v>0.007153278982200001</v>
       </c>
     </row>
     <row r="140">
@@ -4213,7 +4213,7 @@
         <v>3</v>
       </c>
       <c r="B140" t="str">
-        <v>https://www.vestby.kommune.no/sitevision/system-resource/a89de083b1c4d2f884e692c3099295ea972d5f9700cd300f5a4a948226b09800/js/portlets.js</v>
+        <v>https://www.vestby.kommune.no/sitevision/system-resource/1a0aeeb4aa5ea8b6da6e5e4e5e46eccf98e45b58651c1a99defa705520a49ad1/js/portlets.js</v>
       </c>
       <c r="C140" t="str">
         <v>Script</v>
@@ -4222,16 +4222,16 @@
         <v>text/javascript</v>
       </c>
       <c r="E140">
-        <v>39317</v>
+        <v>38892</v>
       </c>
       <c r="F140">
-        <v>152113</v>
+        <v>149358</v>
       </c>
       <c r="G140">
-        <v>0.011433894720999998</v>
+        <v>0.011310299195999999</v>
       </c>
       <c r="H140">
-        <v>0.015061611403800003</v>
+        <v>0.014898801808799999</v>
       </c>
     </row>
     <row r="141">
@@ -4291,7 +4291,7 @@
         <v>3</v>
       </c>
       <c r="B143" t="str">
-        <v>https://www.vestby.kommune.no/images/200.6bd81ce219a0f6105ac9db6/1762778619199/Vannm%C3%A5ler_kuplinger.jpg</v>
+        <v>https://www.vestby.kommune.no/images/200.3d01d52e19a7bbe3b4b744/1763112729654/Festen%20En%20danseforestilling%20for%20av%20og%20med%20ungdom.jpg</v>
       </c>
       <c r="C143" t="str">
         <v>Image</v>
@@ -4300,16 +4300,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E143">
-        <v>13743</v>
+        <v>79732</v>
       </c>
       <c r="F143">
-        <v>13454</v>
+        <v>79443</v>
       </c>
       <c r="G143">
-        <v>0.003996643059</v>
+        <v>0.023187102115999995</v>
       </c>
       <c r="H143">
-        <v>0.0052646876802</v>
+        <v>0.0305438461848</v>
       </c>
     </row>
     <row r="144">
@@ -4317,25 +4317,25 @@
         <v>3</v>
       </c>
       <c r="B144" t="str">
-        <v>https://www.vestby.kommune.no/images/200.6bd81ce219a0f6105ac8e36/1762620576326/Marianne%20H%C3%B8ymer%20fikk%20kulturprisen%208.%20november%202025.webp</v>
+        <v>https://www.vestby.kommune.no/images/200.2eacad2219a0f6ddb02b519/1762940405538/Offisiell%20%C3%A5pning%20av%20dagsenter%20for%20personer%20med%20demens%20p%C3%A5%20Funny%20Farm%20%20Foto%20Vestby%20kommune_4.jpg</v>
       </c>
       <c r="C144" t="str">
         <v>Image</v>
       </c>
       <c r="D144" t="str">
-        <v>image/webp</v>
+        <v>image/jpeg</v>
       </c>
       <c r="E144">
-        <v>58833</v>
+        <v>82368</v>
       </c>
       <c r="F144">
-        <v>58544</v>
+        <v>82079</v>
       </c>
       <c r="G144">
-        <v>0.017109401229</v>
+        <v>0.023953685183999998</v>
       </c>
       <c r="H144">
-        <v>0.022537828006199998</v>
+        <v>0.0315536487552</v>
       </c>
     </row>
     <row r="145">
@@ -4343,25 +4343,25 @@
         <v>3</v>
       </c>
       <c r="B145" t="str">
-        <v>https://www.vestby.kommune.no/images/200.6bd81ce219a0f6105ac6a92/1762260086127/Folkehelseunders%C3%B8kelsen.jpg</v>
+        <v>https://www.vestby.kommune.no/images/200.6bd81ce219a0f6105acaf84/1762935566555/artem-kovalev-jGN7JUKZcU0-unsplash.webp</v>
       </c>
       <c r="C145" t="str">
         <v>Image</v>
       </c>
       <c r="D145" t="str">
-        <v>image/jpeg</v>
+        <v>image/webp</v>
       </c>
       <c r="E145">
-        <v>55736</v>
+        <v>18299</v>
       </c>
       <c r="F145">
-        <v>55447</v>
+        <v>18010</v>
       </c>
       <c r="G145">
-        <v>0.016208753367999998</v>
+        <v>0.005321587086999999</v>
       </c>
       <c r="H145">
-        <v>0.021351424910400003</v>
+        <v>0.007010006538600001</v>
       </c>
     </row>
     <row r="146">
@@ -4447,7 +4447,7 @@
         <v>3</v>
       </c>
       <c r="B149" t="str">
-        <v>https://www.vestby.kommune.no/2.18c119ba194d84639a5f799/91.18c119ba194d84639a5fcdf/1761195015477/BODY/0/sv-template-asset.js</v>
+        <v>https://www.vestby.kommune.no/2.18c119ba194d84639a5f799/91.18c119ba194d84639a5fcdf/1763011215029/BODY/0/sv-template-asset.js</v>
       </c>
       <c r="C149" t="str">
         <v>Script</v>
@@ -4473,7 +4473,7 @@
         <v>3</v>
       </c>
       <c r="B150" t="str">
-        <v>https://www.vestby.kommune.no/sitevision/system-resource/a89de083b1c4d2f884e692c3099295ea972d5f9700cd300f5a4a948226b09800/js/webAppExternals/react_18_3.js</v>
+        <v>https://www.vestby.kommune.no/sitevision/system-resource/1a0aeeb4aa5ea8b6da6e5e4e5e46eccf98e45b58651c1a99defa705520a49ad1/js/webAppExternals/react_18_3.js</v>
       </c>
       <c r="C150" t="str">
         <v>Script</v>
@@ -4508,16 +4508,16 @@
         <v>text/javascript</v>
       </c>
       <c r="E151">
-        <v>22977</v>
+        <v>22978</v>
       </c>
       <c r="F151">
         <v>69596</v>
       </c>
       <c r="G151">
-        <v>0.006682010300999999</v>
+        <v>0.006682301113999999</v>
       </c>
       <c r="H151">
-        <v>0.0088020613278</v>
+        <v>0.0088024444092</v>
       </c>
     </row>
     <row r="152">
@@ -4534,16 +4534,16 @@
         <v>text/javascript</v>
       </c>
       <c r="E152">
-        <v>41219</v>
+        <v>41227</v>
       </c>
       <c r="F152">
         <v>138254</v>
       </c>
       <c r="G152">
-        <v>0.011987021046999998</v>
+        <v>0.011989347550999998</v>
       </c>
       <c r="H152">
-        <v>0.015790232226600004</v>
+        <v>0.015793296877799998</v>
       </c>
     </row>
     <row r="153">
@@ -4551,7 +4551,7 @@
         <v>3</v>
       </c>
       <c r="B153" t="str">
-        <v>https://www.vestby.kommune.no/webapp-resource/2.18c119ba194d84639a5f799/360.3166a6719936f882c7721a/1758904332733/webapp-assets.js</v>
+        <v>https://www.vestby.kommune.no/webapp-resource/2.18c119ba194d84639a5f799/360.30704b35196f64afede7325/1749486735769/webapp-assets.js</v>
       </c>
       <c r="C153" t="str">
         <v>Script</v>
@@ -4560,16 +4560,16 @@
         <v>text/javascript</v>
       </c>
       <c r="E153">
-        <v>7627</v>
+        <v>24571</v>
       </c>
       <c r="F153">
-        <v>38992</v>
+        <v>74871</v>
       </c>
       <c r="G153">
-        <v>0.0022180307509999998</v>
+        <v>0.0071455662229999994</v>
       </c>
       <c r="H153">
-        <v>0.0029217618378</v>
+        <v>0.009412693079400002</v>
       </c>
     </row>
     <row r="154">
@@ -4577,7 +4577,7 @@
         <v>3</v>
       </c>
       <c r="B154" t="str">
-        <v>https://www.vestby.kommune.no/webapp-resource/2.18c119ba194d84639a5f799/360.30704b35196f64afede7325/1749486735769/webapp-assets.js</v>
+        <v>https://www.vestby.kommune.no/webapp-resource/2.18c119ba194d84639a5f799/360.dc1a1cc1993704ee3a405/1757608293360/webapp-assets.js</v>
       </c>
       <c r="C154" t="str">
         <v>Script</v>
@@ -4586,16 +4586,16 @@
         <v>text/javascript</v>
       </c>
       <c r="E154">
-        <v>24570</v>
+        <v>20385</v>
       </c>
       <c r="F154">
-        <v>74871</v>
+        <v>60802</v>
       </c>
       <c r="G154">
-        <v>0.00714527541</v>
+        <v>0.005928223004999999</v>
       </c>
       <c r="H154">
-        <v>0.009412309998000001</v>
+        <v>0.007809114339000001</v>
       </c>
     </row>
     <row r="155">
@@ -4603,7 +4603,7 @@
         <v>3</v>
       </c>
       <c r="B155" t="str">
-        <v>https://www.vestby.kommune.no/webapp-resource/2.18c119ba194d84639a5f799/360.dc1a1cc1993704ee3a405/1757608293360/webapp-assets.js</v>
+        <v>https://www.vestby.kommune.no/webapp-resource/2.18c119ba194d84639a5f799/360.30704b35196f64afede7323/1749486735033/webapp-assets.js</v>
       </c>
       <c r="C155" t="str">
         <v>Script</v>
@@ -4612,16 +4612,16 @@
         <v>text/javascript</v>
       </c>
       <c r="E155">
-        <v>20378</v>
+        <v>19913</v>
       </c>
       <c r="F155">
-        <v>60802</v>
+        <v>58733</v>
       </c>
       <c r="G155">
-        <v>0.005926187313999999</v>
+        <v>0.005790959268999999</v>
       </c>
       <c r="H155">
-        <v>0.007806432769199999</v>
+        <v>0.007628299918200001</v>
       </c>
     </row>
     <row r="156">
@@ -4629,7 +4629,7 @@
         <v>3</v>
       </c>
       <c r="B156" t="str">
-        <v>https://www.vestby.kommune.no/webapp-resource/2.18c119ba194d84639a5f799/360.30704b35196f64afede7323/1749486735033/webapp-assets.js</v>
+        <v>https://www.vestby.kommune.no/webapp-resource/2.18c119ba194d84639a5f799/360.2eacad2219a0f6ddb02b910/1762968646434/webapp-assets.js</v>
       </c>
       <c r="C156" t="str">
         <v>Script</v>
@@ -4638,16 +4638,16 @@
         <v>text/javascript</v>
       </c>
       <c r="E156">
-        <v>19906</v>
+        <v>7880</v>
       </c>
       <c r="F156">
-        <v>58733</v>
+        <v>39790</v>
       </c>
       <c r="G156">
-        <v>0.005788923577999999</v>
+        <v>0.0022916064399999994</v>
       </c>
       <c r="H156">
-        <v>0.0076256183484000005</v>
+        <v>0.0030186814320000005</v>
       </c>
     </row>
     <row r="157">
@@ -4655,7 +4655,7 @@
         <v>3</v>
       </c>
       <c r="B157" t="str">
-        <v>https://www.vestby.kommune.no/sitevision/system-resource/a89de083b1c4d2f884e692c3099295ea972d5f9700cd300f5a4a948226b09800/webapps/webapp_sdk-legacy.js</v>
+        <v>https://www.vestby.kommune.no/sitevision/system-resource/1a0aeeb4aa5ea8b6da6e5e4e5e46eccf98e45b58651c1a99defa705520a49ad1/webapps/webapp_sdk-legacy.js</v>
       </c>
       <c r="C157" t="str">
         <v>Script</v>
@@ -4716,16 +4716,16 @@
         <v>application/javascript</v>
       </c>
       <c r="E159">
-        <v>13689</v>
+        <v>13690</v>
       </c>
       <c r="F159">
         <v>43534</v>
       </c>
       <c r="G159">
-        <v>0.003980939156999999</v>
+        <v>0.003981229969999999</v>
       </c>
       <c r="H159">
-        <v>0.0052440012846000006</v>
+        <v>0.005244384366000001</v>
       </c>
     </row>
     <row r="160">
@@ -4967,7 +4967,7 @@
         <v>3</v>
       </c>
       <c r="B169" t="str">
-        <v>https://www.vestby.kommune.no/sitevision/system-resource/a89de083b1c4d2f884e692c3099295ea972d5f9700cd300f5a4a948226b09800/envision/popper-1c40e6672ac9d88ded8c.js</v>
+        <v>https://www.vestby.kommune.no/sitevision/system-resource/1a0aeeb4aa5ea8b6da6e5e4e5e46eccf98e45b58651c1a99defa705520a49ad1/envision/popper-7d0017b4b0eee8522ac7.js</v>
       </c>
       <c r="C169" t="str">
         <v>Script</v>
@@ -4976,16 +4976,16 @@
         <v>text/javascript</v>
       </c>
       <c r="E169">
-        <v>6837</v>
+        <v>6812</v>
       </c>
       <c r="F169">
-        <v>19616</v>
+        <v>19517</v>
       </c>
       <c r="G169">
-        <v>0.0019882884809999998</v>
+        <v>0.001981018156</v>
       </c>
       <c r="H169">
-        <v>0.0026191275318</v>
+        <v>0.0026095504968</v>
       </c>
     </row>
     <row r="170">
@@ -4993,7 +4993,7 @@
         <v>3</v>
       </c>
       <c r="B170" t="str">
-        <v>https://6002261.global.siteimproveanalytics.io/image.aspx?url=https%3A%2F%2Fwww.vestby.kommune.no%2F&amp;title=VESTBY%20KOMMUNE&amp;res=412x823&amp;accountid=6002261&amp;rt=655&amp;prev=4253cfab-dc6f-523b-f664-4ba6ed1bda35&amp;luid=b26c1f7b-bd45-235a-5cb5-2588f1d71885&amp;rnd=66099</v>
+        <v>https://6002261.global.siteimproveanalytics.io/image.aspx?url=https%3A%2F%2Fwww.vestby.kommune.no%2F&amp;title=VESTBY%20KOMMUNE&amp;res=412x823&amp;accountid=6002261&amp;rt=487&amp;prev=709d42d7-5b6b-79db-0ec8-57906ce56801&amp;luid=3707189f-9374-f3b0-c7a0-ecf0b22ea220&amp;rnd=70509</v>
       </c>
       <c r="C170" t="str">
         <v>Image</v>
@@ -5019,7 +5019,7 @@
         <v>3</v>
       </c>
       <c r="B171" t="str">
-        <v>https://speech21.leseweb.dk/script/unfj0937245pbcd6c35q.css</v>
+        <v>https://speech22.leseweb.dk/script/unfj0937245pbcd6c35q.css</v>
       </c>
       <c r="C171" t="str">
         <v>Stylesheet</v>
@@ -5045,7 +5045,7 @@
         <v>3</v>
       </c>
       <c r="B172" t="str">
-        <v>https://speech21.leseweb.dk/rawfiles/extern2.min.js</v>
+        <v>https://speech22.leseweb.dk/rawfiles/extern2.min.js</v>
       </c>
       <c r="C172" t="str">
         <v>Script</v>
@@ -5071,7 +5071,7 @@
         <v>3</v>
       </c>
       <c r="B173" t="str">
-        <v>https://speech21.leseweb.dk/rawfiles/vfact2.min.js</v>
+        <v>https://speech22.leseweb.dk/rawfiles/vfact2.min.js</v>
       </c>
       <c r="C173" t="str">
         <v>Script</v>
@@ -5336,10 +5336,10 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>56333</v>
+        <v>56767</v>
       </c>
       <c r="D2">
-        <v>282309</v>
+        <v>284808</v>
       </c>
     </row>
     <row r="3">
@@ -5350,10 +5350,10 @@
         <v>45</v>
       </c>
       <c r="C3">
-        <v>170706</v>
+        <v>171471</v>
       </c>
       <c r="D3">
-        <v>1603977</v>
+        <v>1610541</v>
       </c>
     </row>
     <row r="4">
@@ -5364,10 +5364,10 @@
         <v>54</v>
       </c>
       <c r="C4">
-        <v>1159469</v>
+        <v>1158277</v>
       </c>
       <c r="D4">
-        <v>3837315</v>
+        <v>3830952</v>
       </c>
     </row>
     <row r="5">
@@ -5378,10 +5378,10 @@
         <v>48</v>
       </c>
       <c r="C5">
-        <v>959412</v>
+        <v>1115673</v>
       </c>
       <c r="D5">
-        <v>952008</v>
+        <v>1108269</v>
       </c>
     </row>
     <row r="6">
@@ -5459,13 +5459,13 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>868684</v>
+        <v>920779</v>
       </c>
       <c r="C2">
-        <v>0.25262460009199994</v>
+        <v>0.2677745033269999</v>
       </c>
       <c r="D2">
-        <v>0.3327766828776</v>
+        <v>0.3527333084106</v>
       </c>
     </row>
     <row r="3">
@@ -5473,13 +5473,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>868675</v>
+        <v>920749</v>
       </c>
       <c r="C3">
-        <v>0.252621982775</v>
+        <v>0.267765778937</v>
       </c>
       <c r="D3">
-        <v>0.332773235145</v>
+        <v>0.3527218159686</v>
       </c>
     </row>
     <row r="4">
@@ -5487,13 +5487,13 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>868679</v>
+        <v>920778</v>
       </c>
       <c r="C4">
-        <v>0.252623146027</v>
+        <v>0.26777421251399997</v>
       </c>
       <c r="D4">
-        <v>0.33277476747060003</v>
+        <v>0.3527329253292001</v>
       </c>
     </row>
     <row r="5">
@@ -5501,13 +5501,13 @@
         <v>median</v>
       </c>
       <c r="B5">
-        <v>868679</v>
+        <v>920778</v>
       </c>
       <c r="C5">
-        <v>0.252623146027</v>
+        <v>0.26777421251399997</v>
       </c>
       <c r="D5">
-        <v>0.33277476747060003</v>
+        <v>0.3527329253292001</v>
       </c>
     </row>
   </sheetData>

--- a/Midterm-exam/evidence/spreadsheets/per_site/www.vestby.kommune.no.xlsx
+++ b/Midterm-exam/evidence/spreadsheets/per_site/www.vestby.kommune.no.xlsx
@@ -445,31 +445,31 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>7785.067000000001</v>
+        <v>7768.641500000001</v>
       </c>
       <c r="C2">
-        <v>3622.4445000000005</v>
+        <v>3669.041</v>
       </c>
       <c r="D2">
-        <v>276</v>
+        <v>232</v>
       </c>
       <c r="E2">
-        <v>7807.666900000002</v>
+        <v>7791.205550000001</v>
       </c>
       <c r="F2">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>5676.714783441541</v>
+        <v>5709.355107581452</v>
       </c>
       <c r="I2">
         <v>64</v>
       </c>
       <c r="J2">
-        <v>920779</v>
+        <v>920772</v>
       </c>
       <c r="K2">
         <v>60</v>
@@ -480,31 +480,31 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>7779.043</v>
+        <v>7700.357999999998</v>
       </c>
       <c r="C3">
-        <v>3665.5035000000007</v>
+        <v>3615.5915000000005</v>
       </c>
       <c r="D3">
-        <v>259</v>
+        <v>297</v>
       </c>
       <c r="E3">
-        <v>7801.620100000001</v>
+        <v>7715.422199999999</v>
       </c>
       <c r="F3">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>5672.896039849076</v>
+        <v>5673.177032024933</v>
       </c>
       <c r="I3">
         <v>64</v>
       </c>
       <c r="J3">
-        <v>920749</v>
+        <v>920750</v>
       </c>
       <c r="K3">
         <v>60</v>
@@ -515,31 +515,31 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>7702.208000000002</v>
+        <v>7737.468</v>
       </c>
       <c r="C4">
-        <v>3619.9439999999995</v>
+        <v>3614.9074999999993</v>
       </c>
       <c r="D4">
-        <v>288</v>
+        <v>236</v>
       </c>
       <c r="E4">
-        <v>7717.264200000002</v>
+        <v>7752.626200000001</v>
       </c>
       <c r="F4">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>5712.681214902303</v>
+        <v>5354.428908385923</v>
       </c>
       <c r="I4">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J4">
-        <v>920778</v>
+        <v>920773</v>
       </c>
       <c r="K4">
         <v>60</v>
@@ -550,31 +550,31 @@
         <v>median</v>
       </c>
       <c r="B5">
-        <v>7779.043</v>
+        <v>7737.468</v>
       </c>
       <c r="C5">
-        <v>3622.4445000000005</v>
+        <v>3615.5915000000005</v>
       </c>
       <c r="D5">
-        <v>276</v>
+        <v>236</v>
       </c>
       <c r="E5">
-        <v>7801.620100000001</v>
+        <v>7752.626200000001</v>
       </c>
       <c r="F5">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>5676.714783441541</v>
+        <v>5673.177032024933</v>
       </c>
       <c r="I5">
         <v>64</v>
       </c>
       <c r="J5">
-        <v>920778</v>
+        <v>920772</v>
       </c>
       <c r="K5">
         <v>60</v>
@@ -637,7 +637,7 @@
         <v>18921</v>
       </c>
       <c r="F2">
-        <v>94936</v>
+        <v>94935</v>
       </c>
       <c r="G2">
         <v>0.0055024727729999995</v>
@@ -651,7 +651,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="str">
-        <v>https://www.vestby.kommune.no/2.18c119ba194d84639a5f799/1763010998949/sitevision-responsive-grids.css?gridConfigs=651.18c119ba194d84639a5f960_FLUID_GRID&amp;pushPull=false</v>
+        <v>https://www.vestby.kommune.no/2.18c119ba194d84639a5f799/1763011797508/sitevision-responsive-grids.css?gridConfigs=651.18c119ba194d84639a5f960_FLUID_GRID&amp;pushPull=false</v>
       </c>
       <c r="C3" t="str">
         <v>Stylesheet</v>
@@ -677,7 +677,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="str">
-        <v>https://www.vestby.kommune.no/2.18c119ba194d84639a5f799/0/2688/print/SiteVision.css</v>
+        <v>https://www.vestby.kommune.no/2.18c119ba194d84639a5f799/0/339/print/SiteVision.css</v>
       </c>
       <c r="C4" t="str">
         <v>Stylesheet</v>
@@ -755,7 +755,7 @@
         <v>1</v>
       </c>
       <c r="B7" t="str">
-        <v>https://www.vestby.kommune.no/2.18c119ba194d84639a5f799/91.18c119ba194d84639a5fcdf/1763011215023/0/sv-template-asset.css</v>
+        <v>https://www.vestby.kommune.no/2.18c119ba194d84639a5f799/91.18c119ba194d84639a5fcdf/1763012086545/0/sv-template-asset.css</v>
       </c>
       <c r="C7" t="str">
         <v>Stylesheet</v>
@@ -781,7 +781,7 @@
         <v>1</v>
       </c>
       <c r="B8" t="str">
-        <v>https://www.vestby.kommune.no/2.18c119ba194d84639a5f799/1763011214840/sitevision-spacing.css</v>
+        <v>https://www.vestby.kommune.no/2.18c119ba194d84639a5f799/1763012018071/sitevision-spacing.css</v>
       </c>
       <c r="C8" t="str">
         <v>Stylesheet</v>
@@ -1327,7 +1327,7 @@
         <v>1</v>
       </c>
       <c r="B29" t="str">
-        <v>https://www.vestby.kommune.no/2.18c119ba194d84639a5f799/91.18c119ba194d84639a5fcdf/1763011215029/BODY/0/sv-template-asset.js</v>
+        <v>https://www.vestby.kommune.no/2.18c119ba194d84639a5f799/91.18c119ba194d84639a5fcdf/1763012086547/BODY/0/sv-template-asset.js</v>
       </c>
       <c r="C29" t="str">
         <v>Script</v>
@@ -1440,16 +1440,16 @@
         <v>text/javascript</v>
       </c>
       <c r="E33">
-        <v>24570</v>
+        <v>24571</v>
       </c>
       <c r="F33">
         <v>74871</v>
       </c>
       <c r="G33">
-        <v>0.00714527541</v>
+        <v>0.0071455662229999994</v>
       </c>
       <c r="H33">
-        <v>0.009412309998000001</v>
+        <v>0.009412693079400002</v>
       </c>
     </row>
     <row r="34">
@@ -1596,16 +1596,16 @@
         <v>application/javascript</v>
       </c>
       <c r="E39">
-        <v>13694</v>
+        <v>13685</v>
       </c>
       <c r="F39">
         <v>43534</v>
       </c>
       <c r="G39">
-        <v>0.003982393221999999</v>
+        <v>0.003979775904999999</v>
       </c>
       <c r="H39">
-        <v>0.005245916691600001</v>
+        <v>0.005242468959000001</v>
       </c>
     </row>
     <row r="40">
@@ -1873,7 +1873,7 @@
         <v>1</v>
       </c>
       <c r="B50" t="str">
-        <v>https://6002261.global.siteimproveanalytics.io/image.aspx?url=https%3A%2F%2Fwww.vestby.kommune.no%2F&amp;title=VESTBY%20KOMMUNE&amp;res=412x823&amp;accountid=6002261&amp;rt=469&amp;prev=1748ea41-1c02-d86d-87de-d378400fc2b4&amp;luid=1d48ac66-e42b-cb52-f069-68dbf3586a71&amp;rnd=96896</v>
+        <v>https://6002261.global.siteimproveanalytics.io/image.aspx?url=https%3A%2F%2Fwww.vestby.kommune.no%2F&amp;title=VESTBY%20KOMMUNE&amp;res=412x823&amp;accountid=6002261&amp;rt=421&amp;prev=b061e3eb-1b16-6638-add5-d5f7eb8bc97a&amp;luid=628b2826-2a77-11bf-9e47-377422dc0162&amp;rnd=47182</v>
       </c>
       <c r="C50" t="str">
         <v>Image</v>
@@ -1899,7 +1899,7 @@
         <v>1</v>
       </c>
       <c r="B51" t="str">
-        <v>https://speech20.leseweb.dk/script/unfj0937245pbcd6c35q.css</v>
+        <v>https://speech16.leseweb.dk/script/unfj0937245pbcd6c35q.css</v>
       </c>
       <c r="C51" t="str">
         <v>Stylesheet</v>
@@ -1925,7 +1925,7 @@
         <v>1</v>
       </c>
       <c r="B52" t="str">
-        <v>https://speech20.leseweb.dk/rawfiles/extern2.min.js</v>
+        <v>https://speech16.leseweb.dk/rawfiles/extern2.min.js</v>
       </c>
       <c r="C52" t="str">
         <v>Script</v>
@@ -1951,7 +1951,7 @@
         <v>1</v>
       </c>
       <c r="B53" t="str">
-        <v>https://speech20.leseweb.dk/rawfiles/vfact2.min.js</v>
+        <v>https://speech16.leseweb.dk/rawfiles/vfact2.min.js</v>
       </c>
       <c r="C53" t="str">
         <v>Script</v>
@@ -1960,16 +1960,16 @@
         <v>text/javascript</v>
       </c>
       <c r="E53">
-        <v>13135</v>
+        <v>13136</v>
       </c>
       <c r="F53">
         <v>42732</v>
       </c>
       <c r="G53">
-        <v>0.0038198287549999995</v>
+        <v>0.0038201195679999993</v>
       </c>
       <c r="H53">
-        <v>0.005031774189000001</v>
+        <v>0.005032157270400001</v>
       </c>
     </row>
     <row r="54">
@@ -2194,16 +2194,16 @@
         <v>text/html</v>
       </c>
       <c r="E62">
-        <v>18923</v>
+        <v>18922</v>
       </c>
       <c r="F62">
         <v>94936</v>
       </c>
       <c r="G62">
-        <v>0.005503054399</v>
+        <v>0.005502763585999999</v>
       </c>
       <c r="H62">
-        <v>0.007249049332200001</v>
+        <v>0.007248666250800001</v>
       </c>
     </row>
     <row r="63">
@@ -3130,16 +3130,16 @@
         <v>text/javascript</v>
       </c>
       <c r="E98">
-        <v>6952</v>
+        <v>6953</v>
       </c>
       <c r="F98">
-        <v>21983</v>
+        <v>21985</v>
       </c>
       <c r="G98">
-        <v>0.0020217319759999997</v>
+        <v>0.0020220227889999995</v>
       </c>
       <c r="H98">
-        <v>0.0026631818928</v>
+        <v>0.0026635649742000004</v>
       </c>
     </row>
     <row r="99">
@@ -3156,16 +3156,16 @@
         <v>application/javascript</v>
       </c>
       <c r="E99">
-        <v>13686</v>
+        <v>13687</v>
       </c>
       <c r="F99">
         <v>43534</v>
       </c>
       <c r="G99">
-        <v>0.003980066717999999</v>
+        <v>0.0039803575309999995</v>
       </c>
       <c r="H99">
-        <v>0.005242852040400001</v>
+        <v>0.0052432351218</v>
       </c>
     </row>
     <row r="100">
@@ -3433,7 +3433,7 @@
         <v>2</v>
       </c>
       <c r="B110" t="str">
-        <v>https://6002261.global.siteimproveanalytics.io/image.aspx?url=https%3A%2F%2Fwww.vestby.kommune.no%2F&amp;title=VESTBY%20KOMMUNE&amp;res=412x823&amp;accountid=6002261&amp;rt=464&amp;prev=0d6f7d50-8cec-4603-61e5-dce6563bceff&amp;luid=b6f7672e-10f2-e95d-848d-0744f7881e05&amp;rnd=81076</v>
+        <v>https://6002261.global.siteimproveanalytics.io/image.aspx?url=https%3A%2F%2Fwww.vestby.kommune.no%2F&amp;title=VESTBY%20KOMMUNE&amp;res=412x823&amp;accountid=6002261&amp;rt=503&amp;prev=5ec094da-bd7f-6e01-3387-7df081ee7f9c&amp;luid=a0e3aa37-f2ee-c135-3b13-87e314a51214&amp;rnd=80793</v>
       </c>
       <c r="C110" t="str">
         <v>Image</v>
@@ -3459,7 +3459,7 @@
         <v>2</v>
       </c>
       <c r="B111" t="str">
-        <v>https://speech9.leseweb.dk/script/unfj0937245pbcd6c35q.css</v>
+        <v>https://speech13.leseweb.dk/script/unfj0937245pbcd6c35q.css</v>
       </c>
       <c r="C111" t="str">
         <v>Stylesheet</v>
@@ -3485,7 +3485,7 @@
         <v>2</v>
       </c>
       <c r="B112" t="str">
-        <v>https://speech9.leseweb.dk/rawfiles/extern2.min.js</v>
+        <v>https://speech13.leseweb.dk/rawfiles/extern2.min.js</v>
       </c>
       <c r="C112" t="str">
         <v>Script</v>
@@ -3511,7 +3511,7 @@
         <v>2</v>
       </c>
       <c r="B113" t="str">
-        <v>https://speech9.leseweb.dk/rawfiles/vfact2.min.js</v>
+        <v>https://speech13.leseweb.dk/rawfiles/vfact2.min.js</v>
       </c>
       <c r="C113" t="str">
         <v>Script</v>
@@ -3523,7 +3523,7 @@
         <v>13135</v>
       </c>
       <c r="F113">
-        <v>42731</v>
+        <v>42732</v>
       </c>
       <c r="G113">
         <v>0.0038198287549999995</v>
@@ -3754,16 +3754,16 @@
         <v>text/html</v>
       </c>
       <c r="E122">
-        <v>18923</v>
+        <v>18919</v>
       </c>
       <c r="F122">
-        <v>94936</v>
+        <v>94935</v>
       </c>
       <c r="G122">
-        <v>0.005503054399</v>
+        <v>0.005501891147</v>
       </c>
       <c r="H122">
-        <v>0.007249049332200001</v>
+        <v>0.0072475170066</v>
       </c>
     </row>
     <row r="123">
@@ -3771,7 +3771,7 @@
         <v>3</v>
       </c>
       <c r="B123" t="str">
-        <v>https://www.vestby.kommune.no/2.18c119ba194d84639a5f799/1763010998949/sitevision-responsive-grids.css?gridConfigs=651.18c119ba194d84639a5f960_FLUID_GRID&amp;pushPull=false</v>
+        <v>https://www.vestby.kommune.no/2.18c119ba194d84639a5f799/1763011797508/sitevision-responsive-grids.css?gridConfigs=651.18c119ba194d84639a5f960_FLUID_GRID&amp;pushPull=false</v>
       </c>
       <c r="C123" t="str">
         <v>Stylesheet</v>
@@ -3797,7 +3797,7 @@
         <v>3</v>
       </c>
       <c r="B124" t="str">
-        <v>https://www.vestby.kommune.no/2.18c119ba194d84639a5f799/0/2688/print/SiteVision.css</v>
+        <v>https://www.vestby.kommune.no/2.18c119ba194d84639a5f799/0/339/print/SiteVision.css</v>
       </c>
       <c r="C124" t="str">
         <v>Stylesheet</v>
@@ -3875,7 +3875,7 @@
         <v>3</v>
       </c>
       <c r="B127" t="str">
-        <v>https://www.vestby.kommune.no/2.18c119ba194d84639a5f799/91.18c119ba194d84639a5fcdf/1763011215023/0/sv-template-asset.css</v>
+        <v>https://www.vestby.kommune.no/2.18c119ba194d84639a5f799/91.18c119ba194d84639a5fcdf/1763012086545/0/sv-template-asset.css</v>
       </c>
       <c r="C127" t="str">
         <v>Stylesheet</v>
@@ -3901,7 +3901,7 @@
         <v>3</v>
       </c>
       <c r="B128" t="str">
-        <v>https://www.vestby.kommune.no/2.18c119ba194d84639a5f799/1763011214840/sitevision-spacing.css</v>
+        <v>https://www.vestby.kommune.no/2.18c119ba194d84639a5f799/1763012018071/sitevision-spacing.css</v>
       </c>
       <c r="C128" t="str">
         <v>Stylesheet</v>
@@ -4447,7 +4447,7 @@
         <v>3</v>
       </c>
       <c r="B149" t="str">
-        <v>https://www.vestby.kommune.no/2.18c119ba194d84639a5f799/91.18c119ba194d84639a5fcdf/1763011215029/BODY/0/sv-template-asset.js</v>
+        <v>https://www.vestby.kommune.no/2.18c119ba194d84639a5f799/91.18c119ba194d84639a5fcdf/1763012086547/BODY/0/sv-template-asset.js</v>
       </c>
       <c r="C149" t="str">
         <v>Script</v>
@@ -4716,16 +4716,16 @@
         <v>application/javascript</v>
       </c>
       <c r="E159">
-        <v>13690</v>
+        <v>13689</v>
       </c>
       <c r="F159">
         <v>43534</v>
       </c>
       <c r="G159">
-        <v>0.003981229969999999</v>
+        <v>0.003980939156999999</v>
       </c>
       <c r="H159">
-        <v>0.005244384366000001</v>
+        <v>0.0052440012846000006</v>
       </c>
     </row>
     <row r="160">
@@ -4993,7 +4993,7 @@
         <v>3</v>
       </c>
       <c r="B170" t="str">
-        <v>https://6002261.global.siteimproveanalytics.io/image.aspx?url=https%3A%2F%2Fwww.vestby.kommune.no%2F&amp;title=VESTBY%20KOMMUNE&amp;res=412x823&amp;accountid=6002261&amp;rt=487&amp;prev=709d42d7-5b6b-79db-0ec8-57906ce56801&amp;luid=3707189f-9374-f3b0-c7a0-ecf0b22ea220&amp;rnd=70509</v>
+        <v>https://6002261.global.siteimproveanalytics.io/image.aspx?url=https%3A%2F%2Fwww.vestby.kommune.no%2F&amp;title=VESTBY%20KOMMUNE&amp;res=412x823&amp;accountid=6002261&amp;rt=429&amp;prev=bb3ee9ef-2da0-dfbf-0f33-5799675ec8c2&amp;luid=0ad17224-ea05-c085-86b4-6319fe44efcc&amp;rnd=41215</v>
       </c>
       <c r="C170" t="str">
         <v>Image</v>
@@ -5336,10 +5336,10 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>56767</v>
+        <v>56762</v>
       </c>
       <c r="D2">
-        <v>284808</v>
+        <v>284806</v>
       </c>
     </row>
     <row r="3">
@@ -5364,10 +5364,10 @@
         <v>54</v>
       </c>
       <c r="C4">
-        <v>1158277</v>
+        <v>1158271</v>
       </c>
       <c r="D4">
-        <v>3830952</v>
+        <v>3830955</v>
       </c>
     </row>
     <row r="5">
@@ -5459,13 +5459,13 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>920779</v>
+        <v>920772</v>
       </c>
       <c r="C2">
-        <v>0.2677745033269999</v>
+        <v>0.267772467636</v>
       </c>
       <c r="D2">
-        <v>0.3527333084106</v>
+        <v>0.35273062684080003</v>
       </c>
     </row>
     <row r="3">
@@ -5473,13 +5473,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>920749</v>
+        <v>920750</v>
       </c>
       <c r="C3">
-        <v>0.267765778937</v>
+        <v>0.26776606974999995</v>
       </c>
       <c r="D3">
-        <v>0.3527218159686</v>
+        <v>0.3527221990500001</v>
       </c>
     </row>
     <row r="4">
@@ -5487,13 +5487,13 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>920778</v>
+        <v>920773</v>
       </c>
       <c r="C4">
-        <v>0.26777421251399997</v>
+        <v>0.267772758449</v>
       </c>
       <c r="D4">
-        <v>0.3527329253292001</v>
+        <v>0.35273100992219997</v>
       </c>
     </row>
     <row r="5">
@@ -5501,13 +5501,13 @@
         <v>median</v>
       </c>
       <c r="B5">
-        <v>920778</v>
+        <v>920772</v>
       </c>
       <c r="C5">
-        <v>0.26777421251399997</v>
+        <v>0.267772467636</v>
       </c>
       <c r="D5">
-        <v>0.3527329253292001</v>
+        <v>0.35273062684080003</v>
       </c>
     </row>
   </sheetData>
